--- a/SO SACH/0310686815/2015/BANGKE - 15.xlsx
+++ b/SO SACH/0310686815/2015/BANGKE - 15.xlsx
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="764">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -2483,6 +2483,12 @@
   </si>
   <si>
     <t>Lót</t>
+  </si>
+  <si>
+    <t>01GTKT3/003</t>
+  </si>
+  <si>
+    <t>KD/15P</t>
   </si>
 </sst>
 </file>
@@ -3184,18 +3190,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3217,14 +3211,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3238,29 +3235,23 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3280,6 +3271,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3297,30 +3327,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3363,7 +3369,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,7 +3574,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4089,70 +4095,70 @@
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
     </row>
     <row r="6" spans="1:15" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
+      <c r="B6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="120" t="str">
+      <c r="B7" s="127" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F28)</f>
         <v>Kỳ tính thuế: Tháng 2 Năm 2014</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
     </row>
     <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
@@ -4177,67 +4183,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="122" t="s">
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="122" t="s">
+      <c r="J12" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="124"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="124"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="41" t="s">
         <v>43</v>
       </c>
@@ -4250,13 +4256,13 @@
       <c r="F14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
       <c r="N14" s="117" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>28</v>
@@ -8955,6 +8961,11 @@
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -8964,11 +8975,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -8992,9 +8998,9 @@
   <dimension ref="A1:N472"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="C256" sqref="C256:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9049,66 +9055,66 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
+      <c r="B6" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="131" t="str">
+      <c r="B7" s="135" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F28)</f>
         <v>Kỳ tính thuế: Tháng 2 Năm 2015</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -9132,62 +9138,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135" t="s">
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="135" t="s">
+      <c r="I12" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="135" t="s">
+      <c r="K12" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="135" t="s">
+      <c r="L12" s="132" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="135"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="112" t="s">
         <v>43</v>
       </c>
@@ -9200,12 +9206,12 @@
       <c r="F14" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
       <c r="N14" s="116">
         <v>2</v>
       </c>
@@ -9246,16 +9252,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
@@ -9289,16 +9295,16 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="24"/>
@@ -9332,16 +9338,16 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="24"/>
@@ -15684,7 +15690,7 @@
     </row>
     <row r="229" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="9">
-        <f t="shared" ref="B229:B241" si="6">IF(G229&lt;&gt;"",ROW()-25,"")</f>
+        <f t="shared" ref="B229:B292" si="6">IF(G229&lt;&gt;"",ROW()-25,"")</f>
         <v>204</v>
       </c>
       <c r="C229" s="31"/>
@@ -16086,7 +16092,10 @@
       </c>
     </row>
     <row r="242" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="9"/>
+      <c r="B242" s="9">
+        <f t="shared" si="6"/>
+        <v>217</v>
+      </c>
       <c r="C242" s="31"/>
       <c r="D242" s="31"/>
       <c r="E242" s="10" t="s">
@@ -16109,7 +16118,10 @@
       <c r="L242" s="62"/>
     </row>
     <row r="243" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="9"/>
+      <c r="B243" s="9">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
       <c r="C243" s="31"/>
       <c r="D243" s="31"/>
       <c r="E243" s="10" t="s">
@@ -16132,7 +16144,10 @@
       <c r="L243" s="62"/>
     </row>
     <row r="244" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="9"/>
+      <c r="B244" s="9">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
       <c r="C244" s="31"/>
       <c r="D244" s="31"/>
       <c r="E244" s="10" t="s">
@@ -16155,7 +16170,10 @@
       <c r="L244" s="62"/>
     </row>
     <row r="245" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="9"/>
+      <c r="B245" s="9">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
       <c r="C245" s="31"/>
       <c r="D245" s="31"/>
       <c r="E245" s="10" t="s">
@@ -16178,7 +16196,10 @@
       <c r="L245" s="62"/>
     </row>
     <row r="246" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="9"/>
+      <c r="B246" s="9">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
       <c r="C246" s="31"/>
       <c r="D246" s="31"/>
       <c r="E246" s="10" t="s">
@@ -16201,7 +16222,10 @@
       <c r="L246" s="62"/>
     </row>
     <row r="247" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="9"/>
+      <c r="B247" s="9">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
       <c r="C247" s="31"/>
       <c r="D247" s="31"/>
       <c r="E247" s="10" t="s">
@@ -16224,7 +16248,10 @@
       <c r="L247" s="62"/>
     </row>
     <row r="248" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="9"/>
+      <c r="B248" s="9">
+        <f t="shared" si="6"/>
+        <v>223</v>
+      </c>
       <c r="C248" s="31"/>
       <c r="D248" s="31"/>
       <c r="E248" s="10" t="s">
@@ -16247,7 +16274,10 @@
       <c r="L248" s="62"/>
     </row>
     <row r="249" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="9"/>
+      <c r="B249" s="9">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
       <c r="C249" s="31"/>
       <c r="D249" s="31"/>
       <c r="E249" s="10" t="s">
@@ -16270,7 +16300,10 @@
       <c r="L249" s="62"/>
     </row>
     <row r="250" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="9"/>
+      <c r="B250" s="9">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
       <c r="C250" s="31"/>
       <c r="D250" s="31"/>
       <c r="E250" s="10" t="s">
@@ -16293,7 +16326,10 @@
       <c r="L250" s="62"/>
     </row>
     <row r="251" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="9"/>
+      <c r="B251" s="9">
+        <f t="shared" si="6"/>
+        <v>226</v>
+      </c>
       <c r="C251" s="31"/>
       <c r="D251" s="31"/>
       <c r="E251" s="10" t="s">
@@ -16316,7 +16352,10 @@
       <c r="L251" s="62"/>
     </row>
     <row r="252" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="9"/>
+      <c r="B252" s="9">
+        <f t="shared" si="6"/>
+        <v>227</v>
+      </c>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
       <c r="E252" s="10" t="s">
@@ -16339,7 +16378,10 @@
       <c r="L252" s="62"/>
     </row>
     <row r="253" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="9"/>
+      <c r="B253" s="9">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
       <c r="E253" s="10" t="s">
@@ -16362,7 +16404,10 @@
       <c r="L253" s="62"/>
     </row>
     <row r="254" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="9"/>
+      <c r="B254" s="9">
+        <f t="shared" si="6"/>
+        <v>229</v>
+      </c>
       <c r="C254" s="31"/>
       <c r="D254" s="31"/>
       <c r="E254" s="10" t="s">
@@ -16385,7 +16430,10 @@
       <c r="L254" s="62"/>
     </row>
     <row r="255" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="9"/>
+      <c r="B255" s="9">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
       <c r="C255" s="31"/>
       <c r="D255" s="31"/>
       <c r="E255" s="10" t="s">
@@ -16408,9 +16456,16 @@
       <c r="L255" s="62"/>
     </row>
     <row r="256" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="9"/>
-      <c r="C256" s="31"/>
-      <c r="D256" s="31"/>
+      <c r="B256" s="9">
+        <f t="shared" si="6"/>
+        <v>231</v>
+      </c>
+      <c r="C256" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D256" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E256" s="10" t="s">
         <v>227</v>
       </c>
@@ -16431,9 +16486,16 @@
       <c r="L256" s="62"/>
     </row>
     <row r="257" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="9"/>
-      <c r="C257" s="31"/>
-      <c r="D257" s="31"/>
+      <c r="B257" s="9">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+      <c r="C257" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D257" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E257" s="10" t="s">
         <v>228</v>
       </c>
@@ -16454,9 +16516,16 @@
       <c r="L257" s="62"/>
     </row>
     <row r="258" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="9"/>
-      <c r="C258" s="31"/>
-      <c r="D258" s="31"/>
+      <c r="B258" s="9">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="C258" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D258" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E258" s="10" t="s">
         <v>229</v>
       </c>
@@ -16477,9 +16546,16 @@
       <c r="L258" s="62"/>
     </row>
     <row r="259" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="9"/>
-      <c r="C259" s="31"/>
-      <c r="D259" s="31"/>
+      <c r="B259" s="9">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="C259" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D259" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E259" s="10" t="s">
         <v>230</v>
       </c>
@@ -16500,9 +16576,16 @@
       <c r="L259" s="62"/>
     </row>
     <row r="260" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="9"/>
-      <c r="C260" s="31"/>
-      <c r="D260" s="31"/>
+      <c r="B260" s="9">
+        <f t="shared" si="6"/>
+        <v>235</v>
+      </c>
+      <c r="C260" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D260" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E260" s="10" t="s">
         <v>231</v>
       </c>
@@ -16523,9 +16606,16 @@
       <c r="L260" s="62"/>
     </row>
     <row r="261" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="9"/>
-      <c r="C261" s="31"/>
-      <c r="D261" s="31"/>
+      <c r="B261" s="9">
+        <f t="shared" si="6"/>
+        <v>236</v>
+      </c>
+      <c r="C261" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D261" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E261" s="10" t="s">
         <v>232</v>
       </c>
@@ -16546,9 +16636,16 @@
       <c r="L261" s="62"/>
     </row>
     <row r="262" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="9"/>
-      <c r="C262" s="31"/>
-      <c r="D262" s="31"/>
+      <c r="B262" s="9">
+        <f t="shared" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="C262" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D262" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E262" s="10" t="s">
         <v>233</v>
       </c>
@@ -16569,9 +16666,16 @@
       <c r="L262" s="62"/>
     </row>
     <row r="263" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="9"/>
-      <c r="C263" s="31"/>
-      <c r="D263" s="31"/>
+      <c r="B263" s="9">
+        <f t="shared" si="6"/>
+        <v>238</v>
+      </c>
+      <c r="C263" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D263" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E263" s="10" t="s">
         <v>234</v>
       </c>
@@ -16592,9 +16696,16 @@
       <c r="L263" s="62"/>
     </row>
     <row r="264" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="9"/>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31"/>
+      <c r="B264" s="9">
+        <f t="shared" si="6"/>
+        <v>239</v>
+      </c>
+      <c r="C264" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D264" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E264" s="10" t="s">
         <v>235</v>
       </c>
@@ -16615,9 +16726,16 @@
       <c r="L264" s="62"/>
     </row>
     <row r="265" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="9"/>
-      <c r="C265" s="31"/>
-      <c r="D265" s="31"/>
+      <c r="B265" s="9">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="C265" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D265" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E265" s="10" t="s">
         <v>236</v>
       </c>
@@ -16638,9 +16756,16 @@
       <c r="L265" s="62"/>
     </row>
     <row r="266" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="9"/>
-      <c r="C266" s="31"/>
-      <c r="D266" s="31"/>
+      <c r="B266" s="9">
+        <f t="shared" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="C266" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D266" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E266" s="10" t="s">
         <v>237</v>
       </c>
@@ -16661,9 +16786,16 @@
       <c r="L266" s="62"/>
     </row>
     <row r="267" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="9"/>
-      <c r="C267" s="31"/>
-      <c r="D267" s="31"/>
+      <c r="B267" s="9">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="C267" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D267" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E267" s="10" t="s">
         <v>238</v>
       </c>
@@ -16684,9 +16816,16 @@
       <c r="L267" s="62"/>
     </row>
     <row r="268" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="9"/>
-      <c r="C268" s="31"/>
-      <c r="D268" s="31"/>
+      <c r="B268" s="9">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="C268" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D268" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E268" s="10" t="s">
         <v>239</v>
       </c>
@@ -16707,9 +16846,16 @@
       <c r="L268" s="62"/>
     </row>
     <row r="269" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="9"/>
-      <c r="C269" s="31"/>
-      <c r="D269" s="31"/>
+      <c r="B269" s="9">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="C269" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D269" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E269" s="10" t="s">
         <v>240</v>
       </c>
@@ -16730,9 +16876,16 @@
       <c r="L269" s="62"/>
     </row>
     <row r="270" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="9"/>
-      <c r="C270" s="31"/>
-      <c r="D270" s="31"/>
+      <c r="B270" s="9">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="C270" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D270" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E270" s="10" t="s">
         <v>241</v>
       </c>
@@ -16753,9 +16906,16 @@
       <c r="L270" s="62"/>
     </row>
     <row r="271" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="9"/>
-      <c r="C271" s="31"/>
-      <c r="D271" s="31"/>
+      <c r="B271" s="9">
+        <f t="shared" si="6"/>
+        <v>246</v>
+      </c>
+      <c r="C271" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D271" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E271" s="10" t="s">
         <v>242</v>
       </c>
@@ -16776,9 +16936,16 @@
       <c r="L271" s="62"/>
     </row>
     <row r="272" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="9"/>
-      <c r="C272" s="31"/>
-      <c r="D272" s="31"/>
+      <c r="B272" s="9">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="C272" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D272" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E272" s="10" t="s">
         <v>243</v>
       </c>
@@ -16799,9 +16966,16 @@
       <c r="L272" s="62"/>
     </row>
     <row r="273" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="9"/>
-      <c r="C273" s="31"/>
-      <c r="D273" s="31"/>
+      <c r="B273" s="9">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="C273" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D273" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E273" s="10" t="s">
         <v>244</v>
       </c>
@@ -16822,9 +16996,16 @@
       <c r="L273" s="62"/>
     </row>
     <row r="274" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="9"/>
-      <c r="C274" s="31"/>
-      <c r="D274" s="31"/>
+      <c r="B274" s="9">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="C274" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D274" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E274" s="10" t="s">
         <v>112</v>
       </c>
@@ -16845,9 +17026,16 @@
       <c r="L274" s="62"/>
     </row>
     <row r="275" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="9"/>
-      <c r="C275" s="31"/>
-      <c r="D275" s="31"/>
+      <c r="B275" s="9">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="C275" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D275" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E275" s="10" t="s">
         <v>245</v>
       </c>
@@ -16868,9 +17056,16 @@
       <c r="L275" s="62"/>
     </row>
     <row r="276" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="9"/>
-      <c r="C276" s="31"/>
-      <c r="D276" s="31"/>
+      <c r="B276" s="9">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="C276" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D276" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E276" s="10" t="s">
         <v>680</v>
       </c>
@@ -16891,9 +17086,16 @@
       <c r="L276" s="62"/>
     </row>
     <row r="277" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="9"/>
-      <c r="C277" s="31"/>
-      <c r="D277" s="31"/>
+      <c r="B277" s="9">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="C277" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D277" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E277" s="10" t="s">
         <v>246</v>
       </c>
@@ -16914,9 +17116,16 @@
       <c r="L277" s="62"/>
     </row>
     <row r="278" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="9"/>
-      <c r="C278" s="31"/>
-      <c r="D278" s="31"/>
+      <c r="B278" s="9">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="C278" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D278" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E278" s="10" t="s">
         <v>247</v>
       </c>
@@ -16937,9 +17146,16 @@
       <c r="L278" s="62"/>
     </row>
     <row r="279" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="9"/>
-      <c r="C279" s="31"/>
-      <c r="D279" s="31"/>
+      <c r="B279" s="9">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="C279" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D279" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E279" s="10" t="s">
         <v>248</v>
       </c>
@@ -16960,9 +17176,16 @@
       <c r="L279" s="62"/>
     </row>
     <row r="280" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="9"/>
-      <c r="C280" s="31"/>
-      <c r="D280" s="31"/>
+      <c r="B280" s="9">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="C280" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D280" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E280" s="10" t="s">
         <v>249</v>
       </c>
@@ -16983,9 +17206,16 @@
       <c r="L280" s="62"/>
     </row>
     <row r="281" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="9"/>
-      <c r="C281" s="31"/>
-      <c r="D281" s="31"/>
+      <c r="B281" s="9">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="C281" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D281" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E281" s="10" t="s">
         <v>250</v>
       </c>
@@ -17006,9 +17236,16 @@
       <c r="L281" s="62"/>
     </row>
     <row r="282" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="9"/>
-      <c r="C282" s="31"/>
-      <c r="D282" s="31"/>
+      <c r="B282" s="9">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="C282" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D282" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E282" s="10" t="s">
         <v>251</v>
       </c>
@@ -17029,9 +17266,16 @@
       <c r="L282" s="62"/>
     </row>
     <row r="283" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="9"/>
-      <c r="C283" s="31"/>
-      <c r="D283" s="31"/>
+      <c r="B283" s="9">
+        <f t="shared" si="6"/>
+        <v>258</v>
+      </c>
+      <c r="C283" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D283" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E283" s="10" t="s">
         <v>252</v>
       </c>
@@ -17052,9 +17296,16 @@
       <c r="L283" s="62"/>
     </row>
     <row r="284" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="9"/>
-      <c r="C284" s="31"/>
-      <c r="D284" s="31"/>
+      <c r="B284" s="9">
+        <f t="shared" si="6"/>
+        <v>259</v>
+      </c>
+      <c r="C284" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D284" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E284" s="10" t="s">
         <v>253</v>
       </c>
@@ -17075,9 +17326,16 @@
       <c r="L284" s="62"/>
     </row>
     <row r="285" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="9"/>
-      <c r="C285" s="31"/>
-      <c r="D285" s="31"/>
+      <c r="B285" s="9">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="C285" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D285" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E285" s="10" t="s">
         <v>681</v>
       </c>
@@ -17098,9 +17356,16 @@
       <c r="L285" s="62"/>
     </row>
     <row r="286" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="9"/>
-      <c r="C286" s="31"/>
-      <c r="D286" s="31"/>
+      <c r="B286" s="9">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="C286" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D286" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E286" s="10" t="s">
         <v>254</v>
       </c>
@@ -17121,9 +17386,16 @@
       <c r="L286" s="62"/>
     </row>
     <row r="287" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="9"/>
-      <c r="C287" s="31"/>
-      <c r="D287" s="31"/>
+      <c r="B287" s="9">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="C287" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D287" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E287" s="10" t="s">
         <v>682</v>
       </c>
@@ -17144,9 +17416,16 @@
       <c r="L287" s="62"/>
     </row>
     <row r="288" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="9"/>
-      <c r="C288" s="31"/>
-      <c r="D288" s="31"/>
+      <c r="B288" s="9">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="C288" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D288" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E288" s="10" t="s">
         <v>255</v>
       </c>
@@ -17167,9 +17446,16 @@
       <c r="L288" s="62"/>
     </row>
     <row r="289" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="9"/>
-      <c r="C289" s="31"/>
-      <c r="D289" s="31"/>
+      <c r="B289" s="9">
+        <f t="shared" si="6"/>
+        <v>264</v>
+      </c>
+      <c r="C289" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D289" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E289" s="10" t="s">
         <v>337</v>
       </c>
@@ -17190,9 +17476,16 @@
       <c r="L289" s="62"/>
     </row>
     <row r="290" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="9"/>
-      <c r="C290" s="31"/>
-      <c r="D290" s="31"/>
+      <c r="B290" s="9">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="C290" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D290" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E290" s="10" t="s">
         <v>683</v>
       </c>
@@ -17213,9 +17506,16 @@
       <c r="L290" s="62"/>
     </row>
     <row r="291" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="9"/>
-      <c r="C291" s="31"/>
-      <c r="D291" s="31"/>
+      <c r="B291" s="9">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="C291" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D291" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E291" s="10" t="s">
         <v>256</v>
       </c>
@@ -17236,9 +17536,16 @@
       <c r="L291" s="62"/>
     </row>
     <row r="292" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="9"/>
-      <c r="C292" s="31"/>
-      <c r="D292" s="31"/>
+      <c r="B292" s="9">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="C292" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D292" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E292" s="10" t="s">
         <v>257</v>
       </c>
@@ -17259,9 +17566,16 @@
       <c r="L292" s="62"/>
     </row>
     <row r="293" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="9"/>
-      <c r="C293" s="31"/>
-      <c r="D293" s="31"/>
+      <c r="B293" s="9">
+        <f t="shared" ref="B293:B356" si="8">IF(G293&lt;&gt;"",ROW()-25,"")</f>
+        <v>268</v>
+      </c>
+      <c r="C293" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D293" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E293" s="10" t="s">
         <v>258</v>
       </c>
@@ -17282,9 +17596,16 @@
       <c r="L293" s="62"/>
     </row>
     <row r="294" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="9"/>
-      <c r="C294" s="31"/>
-      <c r="D294" s="31"/>
+      <c r="B294" s="9">
+        <f t="shared" si="8"/>
+        <v>269</v>
+      </c>
+      <c r="C294" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D294" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E294" s="10" t="s">
         <v>684</v>
       </c>
@@ -17305,9 +17626,16 @@
       <c r="L294" s="62"/>
     </row>
     <row r="295" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="9"/>
-      <c r="C295" s="31"/>
-      <c r="D295" s="31"/>
+      <c r="B295" s="9">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="C295" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D295" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E295" s="10" t="s">
         <v>259</v>
       </c>
@@ -17328,9 +17656,16 @@
       <c r="L295" s="62"/>
     </row>
     <row r="296" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="9"/>
-      <c r="C296" s="31"/>
-      <c r="D296" s="31"/>
+      <c r="B296" s="9">
+        <f t="shared" si="8"/>
+        <v>271</v>
+      </c>
+      <c r="C296" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D296" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E296" s="10" t="s">
         <v>260</v>
       </c>
@@ -17351,9 +17686,16 @@
       <c r="L296" s="62"/>
     </row>
     <row r="297" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="9"/>
-      <c r="C297" s="31"/>
-      <c r="D297" s="31"/>
+      <c r="B297" s="9">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="C297" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D297" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E297" s="10" t="s">
         <v>261</v>
       </c>
@@ -17374,9 +17716,16 @@
       <c r="L297" s="62"/>
     </row>
     <row r="298" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="9"/>
-      <c r="C298" s="31"/>
-      <c r="D298" s="31"/>
+      <c r="B298" s="9">
+        <f t="shared" si="8"/>
+        <v>273</v>
+      </c>
+      <c r="C298" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D298" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E298" s="10" t="s">
         <v>262</v>
       </c>
@@ -17397,9 +17746,16 @@
       <c r="L298" s="62"/>
     </row>
     <row r="299" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="9"/>
-      <c r="C299" s="31"/>
-      <c r="D299" s="31"/>
+      <c r="B299" s="9">
+        <f t="shared" si="8"/>
+        <v>274</v>
+      </c>
+      <c r="C299" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D299" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E299" s="10" t="s">
         <v>685</v>
       </c>
@@ -17420,9 +17776,16 @@
       <c r="L299" s="62"/>
     </row>
     <row r="300" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="9"/>
-      <c r="C300" s="31"/>
-      <c r="D300" s="31"/>
+      <c r="B300" s="9">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="C300" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D300" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E300" s="10" t="s">
         <v>263</v>
       </c>
@@ -17443,9 +17806,16 @@
       <c r="L300" s="62"/>
     </row>
     <row r="301" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="9"/>
-      <c r="C301" s="31"/>
-      <c r="D301" s="31"/>
+      <c r="B301" s="9">
+        <f t="shared" si="8"/>
+        <v>276</v>
+      </c>
+      <c r="C301" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D301" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E301" s="10" t="s">
         <v>264</v>
       </c>
@@ -17466,9 +17836,16 @@
       <c r="L301" s="62"/>
     </row>
     <row r="302" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="9"/>
-      <c r="C302" s="31"/>
-      <c r="D302" s="31"/>
+      <c r="B302" s="9">
+        <f t="shared" si="8"/>
+        <v>277</v>
+      </c>
+      <c r="C302" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D302" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E302" s="10" t="s">
         <v>265</v>
       </c>
@@ -17489,9 +17866,16 @@
       <c r="L302" s="62"/>
     </row>
     <row r="303" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="9"/>
-      <c r="C303" s="31"/>
-      <c r="D303" s="31"/>
+      <c r="B303" s="9">
+        <f t="shared" si="8"/>
+        <v>278</v>
+      </c>
+      <c r="C303" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D303" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E303" s="10" t="s">
         <v>266</v>
       </c>
@@ -17512,9 +17896,16 @@
       <c r="L303" s="62"/>
     </row>
     <row r="304" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="9"/>
-      <c r="C304" s="31"/>
-      <c r="D304" s="31"/>
+      <c r="B304" s="9">
+        <f t="shared" si="8"/>
+        <v>279</v>
+      </c>
+      <c r="C304" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D304" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E304" s="10" t="s">
         <v>267</v>
       </c>
@@ -17535,9 +17926,16 @@
       <c r="L304" s="62"/>
     </row>
     <row r="305" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="9"/>
-      <c r="C305" s="31"/>
-      <c r="D305" s="31"/>
+      <c r="B305" s="9">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="C305" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D305" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E305" s="10" t="s">
         <v>268</v>
       </c>
@@ -17558,9 +17956,16 @@
       <c r="L305" s="62"/>
     </row>
     <row r="306" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="9"/>
-      <c r="C306" s="31"/>
-      <c r="D306" s="31"/>
+      <c r="B306" s="9">
+        <f t="shared" si="8"/>
+        <v>281</v>
+      </c>
+      <c r="C306" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D306" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E306" s="10" t="s">
         <v>269</v>
       </c>
@@ -17581,9 +17986,16 @@
       <c r="L306" s="62"/>
     </row>
     <row r="307" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="9"/>
-      <c r="C307" s="31"/>
-      <c r="D307" s="31"/>
+      <c r="B307" s="9">
+        <f t="shared" si="8"/>
+        <v>282</v>
+      </c>
+      <c r="C307" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D307" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E307" s="10" t="s">
         <v>270</v>
       </c>
@@ -17604,9 +18016,16 @@
       <c r="L307" s="62"/>
     </row>
     <row r="308" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="9"/>
-      <c r="C308" s="31"/>
-      <c r="D308" s="31"/>
+      <c r="B308" s="9">
+        <f t="shared" si="8"/>
+        <v>283</v>
+      </c>
+      <c r="C308" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D308" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E308" s="10" t="s">
         <v>686</v>
       </c>
@@ -17627,9 +18046,16 @@
       <c r="L308" s="62"/>
     </row>
     <row r="309" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="9"/>
-      <c r="C309" s="31"/>
-      <c r="D309" s="31"/>
+      <c r="B309" s="9">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="C309" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D309" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E309" s="10" t="s">
         <v>271</v>
       </c>
@@ -17650,9 +18076,16 @@
       <c r="L309" s="62"/>
     </row>
     <row r="310" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="9"/>
-      <c r="C310" s="31"/>
-      <c r="D310" s="31"/>
+      <c r="B310" s="9">
+        <f t="shared" si="8"/>
+        <v>285</v>
+      </c>
+      <c r="C310" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D310" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E310" s="10" t="s">
         <v>272</v>
       </c>
@@ -17673,9 +18106,16 @@
       <c r="L310" s="62"/>
     </row>
     <row r="311" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="9"/>
-      <c r="C311" s="31"/>
-      <c r="D311" s="31"/>
+      <c r="B311" s="9">
+        <f t="shared" si="8"/>
+        <v>286</v>
+      </c>
+      <c r="C311" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D311" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E311" s="10" t="s">
         <v>427</v>
       </c>
@@ -17696,9 +18136,16 @@
       <c r="L311" s="62"/>
     </row>
     <row r="312" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="9"/>
-      <c r="C312" s="31"/>
-      <c r="D312" s="31"/>
+      <c r="B312" s="9">
+        <f t="shared" si="8"/>
+        <v>287</v>
+      </c>
+      <c r="C312" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D312" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E312" s="10" t="s">
         <v>687</v>
       </c>
@@ -17719,9 +18166,16 @@
       <c r="L312" s="62"/>
     </row>
     <row r="313" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="9"/>
-      <c r="C313" s="31"/>
-      <c r="D313" s="31"/>
+      <c r="B313" s="9">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D313" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E313" s="10" t="s">
         <v>273</v>
       </c>
@@ -17742,9 +18196,16 @@
       <c r="L313" s="62"/>
     </row>
     <row r="314" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="9"/>
-      <c r="C314" s="31"/>
-      <c r="D314" s="31"/>
+      <c r="B314" s="9">
+        <f t="shared" si="8"/>
+        <v>289</v>
+      </c>
+      <c r="C314" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D314" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E314" s="10" t="s">
         <v>274</v>
       </c>
@@ -17765,9 +18226,16 @@
       <c r="L314" s="62"/>
     </row>
     <row r="315" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="9"/>
-      <c r="C315" s="31"/>
-      <c r="D315" s="31"/>
+      <c r="B315" s="9">
+        <f t="shared" si="8"/>
+        <v>290</v>
+      </c>
+      <c r="C315" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D315" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E315" s="10" t="s">
         <v>275</v>
       </c>
@@ -17788,9 +18256,16 @@
       <c r="L315" s="62"/>
     </row>
     <row r="316" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="9"/>
-      <c r="C316" s="31"/>
-      <c r="D316" s="31"/>
+      <c r="B316" s="9">
+        <f t="shared" si="8"/>
+        <v>291</v>
+      </c>
+      <c r="C316" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D316" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E316" s="10" t="s">
         <v>688</v>
       </c>
@@ -17811,9 +18286,16 @@
       <c r="L316" s="62"/>
     </row>
     <row r="317" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="9"/>
-      <c r="C317" s="31"/>
-      <c r="D317" s="31"/>
+      <c r="B317" s="9">
+        <f t="shared" si="8"/>
+        <v>292</v>
+      </c>
+      <c r="C317" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D317" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E317" s="10" t="s">
         <v>276</v>
       </c>
@@ -17834,9 +18316,16 @@
       <c r="L317" s="62"/>
     </row>
     <row r="318" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="9"/>
-      <c r="C318" s="31"/>
-      <c r="D318" s="31"/>
+      <c r="B318" s="9">
+        <f t="shared" si="8"/>
+        <v>293</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D318" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E318" s="10" t="s">
         <v>689</v>
       </c>
@@ -17857,9 +18346,16 @@
       <c r="L318" s="62"/>
     </row>
     <row r="319" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="9"/>
-      <c r="C319" s="31"/>
-      <c r="D319" s="31"/>
+      <c r="B319" s="9">
+        <f t="shared" si="8"/>
+        <v>294</v>
+      </c>
+      <c r="C319" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D319" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E319" s="10" t="s">
         <v>277</v>
       </c>
@@ -17880,9 +18376,16 @@
       <c r="L319" s="62"/>
     </row>
     <row r="320" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="9"/>
-      <c r="C320" s="31"/>
-      <c r="D320" s="31"/>
+      <c r="B320" s="9">
+        <f t="shared" si="8"/>
+        <v>295</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D320" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E320" s="10" t="s">
         <v>278</v>
       </c>
@@ -17903,9 +18406,16 @@
       <c r="L320" s="62"/>
     </row>
     <row r="321" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="9"/>
-      <c r="C321" s="31"/>
-      <c r="D321" s="31"/>
+      <c r="B321" s="9">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="C321" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D321" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E321" s="10" t="s">
         <v>690</v>
       </c>
@@ -17926,9 +18436,16 @@
       <c r="L321" s="62"/>
     </row>
     <row r="322" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="9"/>
-      <c r="C322" s="31"/>
-      <c r="D322" s="31"/>
+      <c r="B322" s="9">
+        <f t="shared" si="8"/>
+        <v>297</v>
+      </c>
+      <c r="C322" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D322" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E322" s="10" t="s">
         <v>691</v>
       </c>
@@ -17949,9 +18466,16 @@
       <c r="L322" s="62"/>
     </row>
     <row r="323" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="9"/>
-      <c r="C323" s="31"/>
-      <c r="D323" s="31"/>
+      <c r="B323" s="9">
+        <f t="shared" si="8"/>
+        <v>298</v>
+      </c>
+      <c r="C323" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D323" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E323" s="10" t="s">
         <v>692</v>
       </c>
@@ -17972,9 +18496,16 @@
       <c r="L323" s="62"/>
     </row>
     <row r="324" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="9"/>
-      <c r="C324" s="31"/>
-      <c r="D324" s="31"/>
+      <c r="B324" s="9">
+        <f t="shared" si="8"/>
+        <v>299</v>
+      </c>
+      <c r="C324" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D324" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E324" s="10" t="s">
         <v>279</v>
       </c>
@@ -17995,9 +18526,16 @@
       <c r="L324" s="62"/>
     </row>
     <row r="325" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="9"/>
-      <c r="C325" s="31"/>
-      <c r="D325" s="31"/>
+      <c r="B325" s="9">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="C325" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D325" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E325" s="10" t="s">
         <v>280</v>
       </c>
@@ -18018,9 +18556,16 @@
       <c r="L325" s="62"/>
     </row>
     <row r="326" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B326" s="9"/>
-      <c r="C326" s="31"/>
-      <c r="D326" s="31"/>
+      <c r="B326" s="9">
+        <f t="shared" si="8"/>
+        <v>301</v>
+      </c>
+      <c r="C326" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D326" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E326" s="10" t="s">
         <v>281</v>
       </c>
@@ -18041,9 +18586,16 @@
       <c r="L326" s="62"/>
     </row>
     <row r="327" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B327" s="9"/>
-      <c r="C327" s="31"/>
-      <c r="D327" s="31"/>
+      <c r="B327" s="9">
+        <f t="shared" si="8"/>
+        <v>302</v>
+      </c>
+      <c r="C327" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D327" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E327" s="10" t="s">
         <v>282</v>
       </c>
@@ -18064,9 +18616,16 @@
       <c r="L327" s="62"/>
     </row>
     <row r="328" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B328" s="9"/>
-      <c r="C328" s="31"/>
-      <c r="D328" s="31"/>
+      <c r="B328" s="9">
+        <f t="shared" si="8"/>
+        <v>303</v>
+      </c>
+      <c r="C328" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D328" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E328" s="10" t="s">
         <v>283</v>
       </c>
@@ -18087,9 +18646,16 @@
       <c r="L328" s="62"/>
     </row>
     <row r="329" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B329" s="9"/>
-      <c r="C329" s="31"/>
-      <c r="D329" s="31"/>
+      <c r="B329" s="9">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="C329" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D329" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E329" s="10" t="s">
         <v>284</v>
       </c>
@@ -18110,9 +18676,16 @@
       <c r="L329" s="62"/>
     </row>
     <row r="330" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B330" s="9"/>
-      <c r="C330" s="31"/>
-      <c r="D330" s="31"/>
+      <c r="B330" s="9">
+        <f t="shared" si="8"/>
+        <v>305</v>
+      </c>
+      <c r="C330" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D330" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E330" s="10" t="s">
         <v>285</v>
       </c>
@@ -18133,9 +18706,16 @@
       <c r="L330" s="62"/>
     </row>
     <row r="331" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="9"/>
-      <c r="C331" s="31"/>
-      <c r="D331" s="31"/>
+      <c r="B331" s="9">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="C331" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D331" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E331" s="10" t="s">
         <v>286</v>
       </c>
@@ -18156,9 +18736,16 @@
       <c r="L331" s="62"/>
     </row>
     <row r="332" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="9"/>
-      <c r="C332" s="31"/>
-      <c r="D332" s="31"/>
+      <c r="B332" s="9">
+        <f t="shared" si="8"/>
+        <v>307</v>
+      </c>
+      <c r="C332" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D332" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E332" s="10" t="s">
         <v>287</v>
       </c>
@@ -18179,9 +18766,16 @@
       <c r="L332" s="62"/>
     </row>
     <row r="333" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B333" s="9"/>
-      <c r="C333" s="31"/>
-      <c r="D333" s="31"/>
+      <c r="B333" s="9">
+        <f t="shared" si="8"/>
+        <v>308</v>
+      </c>
+      <c r="C333" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D333" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E333" s="10" t="s">
         <v>288</v>
       </c>
@@ -18202,9 +18796,16 @@
       <c r="L333" s="62"/>
     </row>
     <row r="334" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="9"/>
-      <c r="C334" s="31"/>
-      <c r="D334" s="31"/>
+      <c r="B334" s="9">
+        <f t="shared" si="8"/>
+        <v>309</v>
+      </c>
+      <c r="C334" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D334" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E334" s="10" t="s">
         <v>289</v>
       </c>
@@ -18225,9 +18826,16 @@
       <c r="L334" s="62"/>
     </row>
     <row r="335" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="9"/>
-      <c r="C335" s="31"/>
-      <c r="D335" s="31"/>
+      <c r="B335" s="9">
+        <f t="shared" si="8"/>
+        <v>310</v>
+      </c>
+      <c r="C335" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D335" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E335" s="10" t="s">
         <v>290</v>
       </c>
@@ -18248,9 +18856,16 @@
       <c r="L335" s="62"/>
     </row>
     <row r="336" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="9"/>
-      <c r="C336" s="31"/>
-      <c r="D336" s="31"/>
+      <c r="B336" s="9">
+        <f t="shared" si="8"/>
+        <v>311</v>
+      </c>
+      <c r="C336" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D336" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E336" s="10" t="s">
         <v>693</v>
       </c>
@@ -18271,9 +18886,16 @@
       <c r="L336" s="62"/>
     </row>
     <row r="337" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B337" s="9"/>
-      <c r="C337" s="31"/>
-      <c r="D337" s="31"/>
+      <c r="B337" s="9">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="C337" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D337" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E337" s="10" t="s">
         <v>291</v>
       </c>
@@ -18294,9 +18916,16 @@
       <c r="L337" s="62"/>
     </row>
     <row r="338" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B338" s="9"/>
-      <c r="C338" s="31"/>
-      <c r="D338" s="31"/>
+      <c r="B338" s="9">
+        <f t="shared" si="8"/>
+        <v>313</v>
+      </c>
+      <c r="C338" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D338" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E338" s="10" t="s">
         <v>292</v>
       </c>
@@ -18317,9 +18946,16 @@
       <c r="L338" s="62"/>
     </row>
     <row r="339" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B339" s="9"/>
-      <c r="C339" s="31"/>
-      <c r="D339" s="31"/>
+      <c r="B339" s="9">
+        <f t="shared" si="8"/>
+        <v>314</v>
+      </c>
+      <c r="C339" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D339" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E339" s="10" t="s">
         <v>293</v>
       </c>
@@ -18340,9 +18976,16 @@
       <c r="L339" s="62"/>
     </row>
     <row r="340" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B340" s="9"/>
-      <c r="C340" s="31"/>
-      <c r="D340" s="31"/>
+      <c r="B340" s="9">
+        <f t="shared" si="8"/>
+        <v>315</v>
+      </c>
+      <c r="C340" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D340" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E340" s="10" t="s">
         <v>343</v>
       </c>
@@ -18363,9 +19006,16 @@
       <c r="L340" s="62"/>
     </row>
     <row r="341" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B341" s="9"/>
-      <c r="C341" s="31"/>
-      <c r="D341" s="31"/>
+      <c r="B341" s="9">
+        <f t="shared" si="8"/>
+        <v>316</v>
+      </c>
+      <c r="C341" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D341" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E341" s="10" t="s">
         <v>294</v>
       </c>
@@ -18386,9 +19036,16 @@
       <c r="L341" s="62"/>
     </row>
     <row r="342" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B342" s="9"/>
-      <c r="C342" s="31"/>
-      <c r="D342" s="31"/>
+      <c r="B342" s="9">
+        <f t="shared" si="8"/>
+        <v>317</v>
+      </c>
+      <c r="C342" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D342" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E342" s="10" t="s">
         <v>122</v>
       </c>
@@ -18409,9 +19066,16 @@
       <c r="L342" s="62"/>
     </row>
     <row r="343" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B343" s="9"/>
-      <c r="C343" s="31"/>
-      <c r="D343" s="31"/>
+      <c r="B343" s="9">
+        <f t="shared" si="8"/>
+        <v>318</v>
+      </c>
+      <c r="C343" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D343" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E343" s="10" t="s">
         <v>123</v>
       </c>
@@ -18432,9 +19096,16 @@
       <c r="L343" s="62"/>
     </row>
     <row r="344" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B344" s="9"/>
-      <c r="C344" s="31"/>
-      <c r="D344" s="31"/>
+      <c r="B344" s="9">
+        <f t="shared" si="8"/>
+        <v>319</v>
+      </c>
+      <c r="C344" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D344" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E344" s="10" t="s">
         <v>124</v>
       </c>
@@ -18455,9 +19126,16 @@
       <c r="L344" s="62"/>
     </row>
     <row r="345" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B345" s="9"/>
-      <c r="C345" s="31"/>
-      <c r="D345" s="31"/>
+      <c r="B345" s="9">
+        <f t="shared" si="8"/>
+        <v>320</v>
+      </c>
+      <c r="C345" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D345" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E345" s="10" t="s">
         <v>125</v>
       </c>
@@ -18478,9 +19156,16 @@
       <c r="L345" s="62"/>
     </row>
     <row r="346" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="9"/>
-      <c r="C346" s="31"/>
-      <c r="D346" s="31"/>
+      <c r="B346" s="9">
+        <f t="shared" si="8"/>
+        <v>321</v>
+      </c>
+      <c r="C346" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D346" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E346" s="10" t="s">
         <v>126</v>
       </c>
@@ -18501,9 +19186,16 @@
       <c r="L346" s="62"/>
     </row>
     <row r="347" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="9"/>
-      <c r="C347" s="31"/>
-      <c r="D347" s="31"/>
+      <c r="B347" s="9">
+        <f t="shared" si="8"/>
+        <v>322</v>
+      </c>
+      <c r="C347" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D347" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E347" s="10" t="s">
         <v>127</v>
       </c>
@@ -18524,9 +19216,16 @@
       <c r="L347" s="62"/>
     </row>
     <row r="348" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="9"/>
-      <c r="C348" s="31"/>
-      <c r="D348" s="31"/>
+      <c r="B348" s="9">
+        <f t="shared" si="8"/>
+        <v>323</v>
+      </c>
+      <c r="C348" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D348" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E348" s="10" t="s">
         <v>694</v>
       </c>
@@ -18547,9 +19246,16 @@
       <c r="L348" s="62"/>
     </row>
     <row r="349" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B349" s="9"/>
-      <c r="C349" s="31"/>
-      <c r="D349" s="31"/>
+      <c r="B349" s="9">
+        <f t="shared" si="8"/>
+        <v>324</v>
+      </c>
+      <c r="C349" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D349" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E349" s="10" t="s">
         <v>128</v>
       </c>
@@ -18570,9 +19276,16 @@
       <c r="L349" s="62"/>
     </row>
     <row r="350" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B350" s="9"/>
-      <c r="C350" s="31"/>
-      <c r="D350" s="31"/>
+      <c r="B350" s="9">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="C350" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D350" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E350" s="10" t="s">
         <v>129</v>
       </c>
@@ -18593,9 +19306,16 @@
       <c r="L350" s="62"/>
     </row>
     <row r="351" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B351" s="9"/>
-      <c r="C351" s="31"/>
-      <c r="D351" s="31"/>
+      <c r="B351" s="9">
+        <f t="shared" si="8"/>
+        <v>326</v>
+      </c>
+      <c r="C351" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D351" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E351" s="10" t="s">
         <v>130</v>
       </c>
@@ -18616,9 +19336,16 @@
       <c r="L351" s="62"/>
     </row>
     <row r="352" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="9"/>
-      <c r="C352" s="31"/>
-      <c r="D352" s="31"/>
+      <c r="B352" s="9">
+        <f t="shared" si="8"/>
+        <v>327</v>
+      </c>
+      <c r="C352" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D352" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E352" s="10" t="s">
         <v>131</v>
       </c>
@@ -18639,9 +19366,16 @@
       <c r="L352" s="62"/>
     </row>
     <row r="353" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="9"/>
-      <c r="C353" s="31"/>
-      <c r="D353" s="31"/>
+      <c r="B353" s="9">
+        <f t="shared" si="8"/>
+        <v>328</v>
+      </c>
+      <c r="C353" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D353" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E353" s="10" t="s">
         <v>295</v>
       </c>
@@ -18662,9 +19396,16 @@
       <c r="L353" s="62"/>
     </row>
     <row r="354" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="9"/>
-      <c r="C354" s="31"/>
-      <c r="D354" s="31"/>
+      <c r="B354" s="9">
+        <f t="shared" si="8"/>
+        <v>329</v>
+      </c>
+      <c r="C354" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D354" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E354" s="10" t="s">
         <v>132</v>
       </c>
@@ -18685,9 +19426,16 @@
       <c r="L354" s="62"/>
     </row>
     <row r="355" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="9"/>
-      <c r="C355" s="31"/>
-      <c r="D355" s="31"/>
+      <c r="B355" s="9">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+      <c r="C355" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D355" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E355" s="10" t="s">
         <v>133</v>
       </c>
@@ -18708,9 +19456,16 @@
       <c r="L355" s="62"/>
     </row>
     <row r="356" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="9"/>
-      <c r="C356" s="31"/>
-      <c r="D356" s="31"/>
+      <c r="B356" s="9">
+        <f t="shared" si="8"/>
+        <v>331</v>
+      </c>
+      <c r="C356" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D356" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E356" s="10" t="s">
         <v>134</v>
       </c>
@@ -18731,9 +19486,16 @@
       <c r="L356" s="62"/>
     </row>
     <row r="357" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="9"/>
-      <c r="C357" s="31"/>
-      <c r="D357" s="31"/>
+      <c r="B357" s="9">
+        <f t="shared" ref="B357:B420" si="9">IF(G357&lt;&gt;"",ROW()-25,"")</f>
+        <v>332</v>
+      </c>
+      <c r="C357" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D357" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E357" s="10" t="s">
         <v>135</v>
       </c>
@@ -18754,9 +19516,16 @@
       <c r="L357" s="62"/>
     </row>
     <row r="358" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="9"/>
-      <c r="C358" s="31"/>
-      <c r="D358" s="31"/>
+      <c r="B358" s="9">
+        <f t="shared" si="9"/>
+        <v>333</v>
+      </c>
+      <c r="C358" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D358" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E358" s="10" t="s">
         <v>695</v>
       </c>
@@ -18777,9 +19546,16 @@
       <c r="L358" s="62"/>
     </row>
     <row r="359" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="9"/>
-      <c r="C359" s="31"/>
-      <c r="D359" s="31"/>
+      <c r="B359" s="9">
+        <f t="shared" si="9"/>
+        <v>334</v>
+      </c>
+      <c r="C359" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D359" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E359" s="10" t="s">
         <v>696</v>
       </c>
@@ -18800,9 +19576,16 @@
       <c r="L359" s="62"/>
     </row>
     <row r="360" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="9"/>
-      <c r="C360" s="31"/>
-      <c r="D360" s="31"/>
+      <c r="B360" s="9">
+        <f t="shared" si="9"/>
+        <v>335</v>
+      </c>
+      <c r="C360" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D360" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E360" s="10" t="s">
         <v>136</v>
       </c>
@@ -18823,9 +19606,16 @@
       <c r="L360" s="62"/>
     </row>
     <row r="361" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="9"/>
-      <c r="C361" s="31"/>
-      <c r="D361" s="31"/>
+      <c r="B361" s="9">
+        <f t="shared" si="9"/>
+        <v>336</v>
+      </c>
+      <c r="C361" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D361" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E361" s="10" t="s">
         <v>137</v>
       </c>
@@ -18846,9 +19636,16 @@
       <c r="L361" s="62"/>
     </row>
     <row r="362" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B362" s="9"/>
-      <c r="C362" s="31"/>
-      <c r="D362" s="31"/>
+      <c r="B362" s="9">
+        <f t="shared" si="9"/>
+        <v>337</v>
+      </c>
+      <c r="C362" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D362" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E362" s="10" t="s">
         <v>138</v>
       </c>
@@ -18869,9 +19666,16 @@
       <c r="L362" s="62"/>
     </row>
     <row r="363" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="9"/>
-      <c r="C363" s="31"/>
-      <c r="D363" s="31"/>
+      <c r="B363" s="9">
+        <f t="shared" si="9"/>
+        <v>338</v>
+      </c>
+      <c r="C363" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D363" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E363" s="10" t="s">
         <v>139</v>
       </c>
@@ -18892,9 +19696,16 @@
       <c r="L363" s="62"/>
     </row>
     <row r="364" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="9"/>
-      <c r="C364" s="31"/>
-      <c r="D364" s="31"/>
+      <c r="B364" s="9">
+        <f t="shared" si="9"/>
+        <v>339</v>
+      </c>
+      <c r="C364" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D364" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E364" s="10" t="s">
         <v>296</v>
       </c>
@@ -18915,9 +19726,16 @@
       <c r="L364" s="62"/>
     </row>
     <row r="365" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B365" s="9"/>
-      <c r="C365" s="31"/>
-      <c r="D365" s="31"/>
+      <c r="B365" s="9">
+        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="C365" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D365" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E365" s="10" t="s">
         <v>297</v>
       </c>
@@ -18938,9 +19756,16 @@
       <c r="L365" s="62"/>
     </row>
     <row r="366" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B366" s="9"/>
-      <c r="C366" s="31"/>
-      <c r="D366" s="31"/>
+      <c r="B366" s="9">
+        <f t="shared" si="9"/>
+        <v>341</v>
+      </c>
+      <c r="C366" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D366" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E366" s="10" t="s">
         <v>298</v>
       </c>
@@ -18961,9 +19786,16 @@
       <c r="L366" s="62"/>
     </row>
     <row r="367" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B367" s="9"/>
-      <c r="C367" s="31"/>
-      <c r="D367" s="31"/>
+      <c r="B367" s="9">
+        <f t="shared" si="9"/>
+        <v>342</v>
+      </c>
+      <c r="C367" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D367" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E367" s="10" t="s">
         <v>697</v>
       </c>
@@ -18984,9 +19816,16 @@
       <c r="L367" s="62"/>
     </row>
     <row r="368" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B368" s="9"/>
-      <c r="C368" s="31"/>
-      <c r="D368" s="31"/>
+      <c r="B368" s="9">
+        <f t="shared" si="9"/>
+        <v>343</v>
+      </c>
+      <c r="C368" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D368" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E368" s="10" t="s">
         <v>140</v>
       </c>
@@ -19007,9 +19846,16 @@
       <c r="L368" s="62"/>
     </row>
     <row r="369" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="9"/>
-      <c r="C369" s="31"/>
-      <c r="D369" s="31"/>
+      <c r="B369" s="9">
+        <f t="shared" si="9"/>
+        <v>344</v>
+      </c>
+      <c r="C369" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D369" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E369" s="10" t="s">
         <v>141</v>
       </c>
@@ -19030,9 +19876,16 @@
       <c r="L369" s="62"/>
     </row>
     <row r="370" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B370" s="9"/>
-      <c r="C370" s="31"/>
-      <c r="D370" s="31"/>
+      <c r="B370" s="9">
+        <f t="shared" si="9"/>
+        <v>345</v>
+      </c>
+      <c r="C370" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D370" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E370" s="10" t="s">
         <v>142</v>
       </c>
@@ -19053,9 +19906,16 @@
       <c r="L370" s="62"/>
     </row>
     <row r="371" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B371" s="9"/>
-      <c r="C371" s="31"/>
-      <c r="D371" s="31"/>
+      <c r="B371" s="9">
+        <f t="shared" si="9"/>
+        <v>346</v>
+      </c>
+      <c r="C371" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D371" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E371" s="10" t="s">
         <v>299</v>
       </c>
@@ -19076,9 +19936,16 @@
       <c r="L371" s="62"/>
     </row>
     <row r="372" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="9"/>
-      <c r="C372" s="31"/>
-      <c r="D372" s="31"/>
+      <c r="B372" s="9">
+        <f t="shared" si="9"/>
+        <v>347</v>
+      </c>
+      <c r="C372" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D372" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E372" s="10" t="s">
         <v>300</v>
       </c>
@@ -19099,9 +19966,16 @@
       <c r="L372" s="62"/>
     </row>
     <row r="373" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B373" s="9"/>
-      <c r="C373" s="31"/>
-      <c r="D373" s="31"/>
+      <c r="B373" s="9">
+        <f t="shared" si="9"/>
+        <v>348</v>
+      </c>
+      <c r="C373" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D373" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E373" s="10" t="s">
         <v>143</v>
       </c>
@@ -19122,9 +19996,16 @@
       <c r="L373" s="62"/>
     </row>
     <row r="374" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B374" s="9"/>
-      <c r="C374" s="31"/>
-      <c r="D374" s="31"/>
+      <c r="B374" s="9">
+        <f t="shared" si="9"/>
+        <v>349</v>
+      </c>
+      <c r="C374" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D374" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E374" s="10" t="s">
         <v>144</v>
       </c>
@@ -19145,9 +20026,16 @@
       <c r="L374" s="62"/>
     </row>
     <row r="375" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B375" s="9"/>
-      <c r="C375" s="31"/>
-      <c r="D375" s="31"/>
+      <c r="B375" s="9">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="C375" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D375" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E375" s="10" t="s">
         <v>145</v>
       </c>
@@ -19168,9 +20056,16 @@
       <c r="L375" s="62"/>
     </row>
     <row r="376" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B376" s="9"/>
-      <c r="C376" s="31"/>
-      <c r="D376" s="31"/>
+      <c r="B376" s="9">
+        <f t="shared" si="9"/>
+        <v>351</v>
+      </c>
+      <c r="C376" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D376" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E376" s="10" t="s">
         <v>146</v>
       </c>
@@ -19191,9 +20086,16 @@
       <c r="L376" s="62"/>
     </row>
     <row r="377" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="9"/>
-      <c r="C377" s="31"/>
-      <c r="D377" s="31"/>
+      <c r="B377" s="9">
+        <f t="shared" si="9"/>
+        <v>352</v>
+      </c>
+      <c r="C377" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D377" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E377" s="10" t="s">
         <v>147</v>
       </c>
@@ -19214,9 +20116,16 @@
       <c r="L377" s="62"/>
     </row>
     <row r="378" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="9"/>
-      <c r="C378" s="31"/>
-      <c r="D378" s="31"/>
+      <c r="B378" s="9">
+        <f t="shared" si="9"/>
+        <v>353</v>
+      </c>
+      <c r="C378" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D378" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E378" s="10" t="s">
         <v>148</v>
       </c>
@@ -19237,9 +20146,16 @@
       <c r="L378" s="62"/>
     </row>
     <row r="379" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="9"/>
-      <c r="C379" s="31"/>
-      <c r="D379" s="31"/>
+      <c r="B379" s="9">
+        <f t="shared" si="9"/>
+        <v>354</v>
+      </c>
+      <c r="C379" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D379" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E379" s="10" t="s">
         <v>149</v>
       </c>
@@ -19260,9 +20176,16 @@
       <c r="L379" s="62"/>
     </row>
     <row r="380" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B380" s="9"/>
-      <c r="C380" s="31"/>
-      <c r="D380" s="31"/>
+      <c r="B380" s="9">
+        <f t="shared" si="9"/>
+        <v>355</v>
+      </c>
+      <c r="C380" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D380" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E380" s="10" t="s">
         <v>150</v>
       </c>
@@ -19283,9 +20206,16 @@
       <c r="L380" s="62"/>
     </row>
     <row r="381" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B381" s="9"/>
-      <c r="C381" s="31"/>
-      <c r="D381" s="31"/>
+      <c r="B381" s="9">
+        <f t="shared" si="9"/>
+        <v>356</v>
+      </c>
+      <c r="C381" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D381" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E381" s="10" t="s">
         <v>151</v>
       </c>
@@ -19306,9 +20236,16 @@
       <c r="L381" s="62"/>
     </row>
     <row r="382" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="9"/>
-      <c r="C382" s="31"/>
-      <c r="D382" s="31"/>
+      <c r="B382" s="9">
+        <f t="shared" si="9"/>
+        <v>357</v>
+      </c>
+      <c r="C382" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D382" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E382" s="10" t="s">
         <v>152</v>
       </c>
@@ -19329,9 +20266,16 @@
       <c r="L382" s="62"/>
     </row>
     <row r="383" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B383" s="9"/>
-      <c r="C383" s="31"/>
-      <c r="D383" s="31"/>
+      <c r="B383" s="9">
+        <f t="shared" si="9"/>
+        <v>358</v>
+      </c>
+      <c r="C383" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D383" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E383" s="10" t="s">
         <v>153</v>
       </c>
@@ -19352,9 +20296,16 @@
       <c r="L383" s="62"/>
     </row>
     <row r="384" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B384" s="9"/>
-      <c r="C384" s="31"/>
-      <c r="D384" s="31"/>
+      <c r="B384" s="9">
+        <f t="shared" si="9"/>
+        <v>359</v>
+      </c>
+      <c r="C384" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D384" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E384" s="10" t="s">
         <v>154</v>
       </c>
@@ -19375,9 +20326,16 @@
       <c r="L384" s="62"/>
     </row>
     <row r="385" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="9"/>
-      <c r="C385" s="31"/>
-      <c r="D385" s="31"/>
+      <c r="B385" s="9">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="C385" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D385" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E385" s="10" t="s">
         <v>155</v>
       </c>
@@ -19398,9 +20356,16 @@
       <c r="L385" s="62"/>
     </row>
     <row r="386" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="9"/>
-      <c r="C386" s="31"/>
-      <c r="D386" s="31"/>
+      <c r="B386" s="9">
+        <f t="shared" si="9"/>
+        <v>361</v>
+      </c>
+      <c r="C386" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D386" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E386" s="10" t="s">
         <v>156</v>
       </c>
@@ -19421,9 +20386,16 @@
       <c r="L386" s="62"/>
     </row>
     <row r="387" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="9"/>
-      <c r="C387" s="31"/>
-      <c r="D387" s="31"/>
+      <c r="B387" s="9">
+        <f t="shared" si="9"/>
+        <v>362</v>
+      </c>
+      <c r="C387" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D387" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E387" s="10" t="s">
         <v>301</v>
       </c>
@@ -19444,9 +20416,16 @@
       <c r="L387" s="62"/>
     </row>
     <row r="388" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="9"/>
-      <c r="C388" s="31"/>
-      <c r="D388" s="31"/>
+      <c r="B388" s="9">
+        <f t="shared" si="9"/>
+        <v>363</v>
+      </c>
+      <c r="C388" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D388" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E388" s="10" t="s">
         <v>157</v>
       </c>
@@ -19467,9 +20446,16 @@
       <c r="L388" s="62"/>
     </row>
     <row r="389" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="9"/>
-      <c r="C389" s="31"/>
-      <c r="D389" s="31"/>
+      <c r="B389" s="9">
+        <f t="shared" si="9"/>
+        <v>364</v>
+      </c>
+      <c r="C389" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D389" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E389" s="10" t="s">
         <v>158</v>
       </c>
@@ -19490,9 +20476,16 @@
       <c r="L389" s="62"/>
     </row>
     <row r="390" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="9"/>
-      <c r="C390" s="31"/>
-      <c r="D390" s="31"/>
+      <c r="B390" s="9">
+        <f t="shared" si="9"/>
+        <v>365</v>
+      </c>
+      <c r="C390" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D390" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E390" s="10" t="s">
         <v>698</v>
       </c>
@@ -19513,9 +20506,16 @@
       <c r="L390" s="62"/>
     </row>
     <row r="391" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="9"/>
-      <c r="C391" s="31"/>
-      <c r="D391" s="31"/>
+      <c r="B391" s="9">
+        <f t="shared" si="9"/>
+        <v>366</v>
+      </c>
+      <c r="C391" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D391" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E391" s="10" t="s">
         <v>159</v>
       </c>
@@ -19536,9 +20536,16 @@
       <c r="L391" s="62"/>
     </row>
     <row r="392" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="9"/>
-      <c r="C392" s="31"/>
-      <c r="D392" s="31"/>
+      <c r="B392" s="9">
+        <f t="shared" si="9"/>
+        <v>367</v>
+      </c>
+      <c r="C392" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D392" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E392" s="10" t="s">
         <v>160</v>
       </c>
@@ -19559,9 +20566,16 @@
       <c r="L392" s="62"/>
     </row>
     <row r="393" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="9"/>
-      <c r="C393" s="31"/>
-      <c r="D393" s="31"/>
+      <c r="B393" s="9">
+        <f t="shared" si="9"/>
+        <v>368</v>
+      </c>
+      <c r="C393" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D393" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E393" s="10" t="s">
         <v>161</v>
       </c>
@@ -19582,9 +20596,16 @@
       <c r="L393" s="62"/>
     </row>
     <row r="394" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="9"/>
-      <c r="C394" s="31"/>
-      <c r="D394" s="31"/>
+      <c r="B394" s="9">
+        <f t="shared" si="9"/>
+        <v>369</v>
+      </c>
+      <c r="C394" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D394" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E394" s="10" t="s">
         <v>162</v>
       </c>
@@ -19605,9 +20626,16 @@
       <c r="L394" s="62"/>
     </row>
     <row r="395" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="9"/>
-      <c r="C395" s="31"/>
-      <c r="D395" s="31"/>
+      <c r="B395" s="9">
+        <f t="shared" si="9"/>
+        <v>370</v>
+      </c>
+      <c r="C395" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D395" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E395" s="10" t="s">
         <v>699</v>
       </c>
@@ -19628,9 +20656,16 @@
       <c r="L395" s="62"/>
     </row>
     <row r="396" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="9"/>
-      <c r="C396" s="31"/>
-      <c r="D396" s="31"/>
+      <c r="B396" s="9">
+        <f t="shared" si="9"/>
+        <v>371</v>
+      </c>
+      <c r="C396" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D396" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E396" s="10" t="s">
         <v>302</v>
       </c>
@@ -19651,9 +20686,16 @@
       <c r="L396" s="62"/>
     </row>
     <row r="397" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="9"/>
-      <c r="C397" s="31"/>
-      <c r="D397" s="31"/>
+      <c r="B397" s="9">
+        <f t="shared" si="9"/>
+        <v>372</v>
+      </c>
+      <c r="C397" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D397" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E397" s="10" t="s">
         <v>163</v>
       </c>
@@ -19674,9 +20716,16 @@
       <c r="L397" s="62"/>
     </row>
     <row r="398" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="9"/>
-      <c r="C398" s="31"/>
-      <c r="D398" s="31"/>
+      <c r="B398" s="9">
+        <f t="shared" si="9"/>
+        <v>373</v>
+      </c>
+      <c r="C398" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D398" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E398" s="10" t="s">
         <v>164</v>
       </c>
@@ -19697,9 +20746,16 @@
       <c r="L398" s="62"/>
     </row>
     <row r="399" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="9"/>
-      <c r="C399" s="31"/>
-      <c r="D399" s="31"/>
+      <c r="B399" s="9">
+        <f t="shared" si="9"/>
+        <v>374</v>
+      </c>
+      <c r="C399" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D399" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E399" s="10" t="s">
         <v>165</v>
       </c>
@@ -19720,9 +20776,16 @@
       <c r="L399" s="62"/>
     </row>
     <row r="400" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="9"/>
-      <c r="C400" s="31"/>
-      <c r="D400" s="31"/>
+      <c r="B400" s="9">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="C400" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D400" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E400" s="10" t="s">
         <v>166</v>
       </c>
@@ -19743,9 +20806,16 @@
       <c r="L400" s="62"/>
     </row>
     <row r="401" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="9"/>
-      <c r="C401" s="31"/>
-      <c r="D401" s="31"/>
+      <c r="B401" s="9">
+        <f t="shared" si="9"/>
+        <v>376</v>
+      </c>
+      <c r="C401" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D401" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E401" s="10" t="s">
         <v>303</v>
       </c>
@@ -19766,9 +20836,16 @@
       <c r="L401" s="62"/>
     </row>
     <row r="402" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="9"/>
-      <c r="C402" s="31"/>
-      <c r="D402" s="31"/>
+      <c r="B402" s="9">
+        <f t="shared" si="9"/>
+        <v>377</v>
+      </c>
+      <c r="C402" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D402" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E402" s="10" t="s">
         <v>168</v>
       </c>
@@ -19789,9 +20866,16 @@
       <c r="L402" s="62"/>
     </row>
     <row r="403" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="9"/>
-      <c r="C403" s="31"/>
-      <c r="D403" s="31"/>
+      <c r="B403" s="9">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="C403" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D403" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E403" s="10" t="s">
         <v>169</v>
       </c>
@@ -19812,9 +20896,16 @@
       <c r="L403" s="62"/>
     </row>
     <row r="404" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="9"/>
-      <c r="C404" s="31"/>
-      <c r="D404" s="31"/>
+      <c r="B404" s="9">
+        <f t="shared" si="9"/>
+        <v>379</v>
+      </c>
+      <c r="C404" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D404" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E404" s="10" t="s">
         <v>170</v>
       </c>
@@ -19835,9 +20926,16 @@
       <c r="L404" s="62"/>
     </row>
     <row r="405" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="9"/>
-      <c r="C405" s="31"/>
-      <c r="D405" s="31"/>
+      <c r="B405" s="9">
+        <f t="shared" si="9"/>
+        <v>380</v>
+      </c>
+      <c r="C405" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D405" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E405" s="10" t="s">
         <v>700</v>
       </c>
@@ -19858,9 +20956,16 @@
       <c r="L405" s="62"/>
     </row>
     <row r="406" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="9"/>
-      <c r="C406" s="31"/>
-      <c r="D406" s="31"/>
+      <c r="B406" s="9">
+        <f t="shared" si="9"/>
+        <v>381</v>
+      </c>
+      <c r="C406" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D406" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E406" s="10" t="s">
         <v>171</v>
       </c>
@@ -19881,9 +20986,16 @@
       <c r="L406" s="62"/>
     </row>
     <row r="407" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="9"/>
-      <c r="C407" s="31"/>
-      <c r="D407" s="31"/>
+      <c r="B407" s="9">
+        <f t="shared" si="9"/>
+        <v>382</v>
+      </c>
+      <c r="C407" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D407" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E407" s="10" t="s">
         <v>172</v>
       </c>
@@ -19904,9 +21016,16 @@
       <c r="L407" s="62"/>
     </row>
     <row r="408" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="9"/>
-      <c r="C408" s="31"/>
-      <c r="D408" s="31"/>
+      <c r="B408" s="9">
+        <f t="shared" si="9"/>
+        <v>383</v>
+      </c>
+      <c r="C408" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D408" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E408" s="10" t="s">
         <v>173</v>
       </c>
@@ -19927,9 +21046,16 @@
       <c r="L408" s="62"/>
     </row>
     <row r="409" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="9"/>
-      <c r="C409" s="31"/>
-      <c r="D409" s="31"/>
+      <c r="B409" s="9">
+        <f t="shared" si="9"/>
+        <v>384</v>
+      </c>
+      <c r="C409" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D409" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E409" s="10" t="s">
         <v>174</v>
       </c>
@@ -19950,9 +21076,16 @@
       <c r="L409" s="62"/>
     </row>
     <row r="410" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="9"/>
-      <c r="C410" s="31"/>
-      <c r="D410" s="31"/>
+      <c r="B410" s="9">
+        <f t="shared" si="9"/>
+        <v>385</v>
+      </c>
+      <c r="C410" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D410" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E410" s="10" t="s">
         <v>175</v>
       </c>
@@ -19973,9 +21106,16 @@
       <c r="L410" s="62"/>
     </row>
     <row r="411" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="9"/>
-      <c r="C411" s="31"/>
-      <c r="D411" s="31"/>
+      <c r="B411" s="9">
+        <f t="shared" si="9"/>
+        <v>386</v>
+      </c>
+      <c r="C411" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D411" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E411" s="10" t="s">
         <v>176</v>
       </c>
@@ -19996,9 +21136,16 @@
       <c r="L411" s="62"/>
     </row>
     <row r="412" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="9"/>
-      <c r="C412" s="31"/>
-      <c r="D412" s="31"/>
+      <c r="B412" s="9">
+        <f t="shared" si="9"/>
+        <v>387</v>
+      </c>
+      <c r="C412" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D412" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E412" s="10" t="s">
         <v>177</v>
       </c>
@@ -20019,9 +21166,16 @@
       <c r="L412" s="62"/>
     </row>
     <row r="413" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="9"/>
-      <c r="C413" s="31"/>
-      <c r="D413" s="31"/>
+      <c r="B413" s="9">
+        <f t="shared" si="9"/>
+        <v>388</v>
+      </c>
+      <c r="C413" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D413" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E413" s="10" t="s">
         <v>178</v>
       </c>
@@ -20042,9 +21196,16 @@
       <c r="L413" s="62"/>
     </row>
     <row r="414" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="9"/>
-      <c r="C414" s="31"/>
-      <c r="D414" s="31"/>
+      <c r="B414" s="9">
+        <f t="shared" si="9"/>
+        <v>389</v>
+      </c>
+      <c r="C414" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D414" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E414" s="10" t="s">
         <v>179</v>
       </c>
@@ -20065,9 +21226,16 @@
       <c r="L414" s="62"/>
     </row>
     <row r="415" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="9"/>
-      <c r="C415" s="31"/>
-      <c r="D415" s="31"/>
+      <c r="B415" s="9">
+        <f t="shared" si="9"/>
+        <v>390</v>
+      </c>
+      <c r="C415" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D415" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E415" s="10" t="s">
         <v>180</v>
       </c>
@@ -20088,9 +21256,16 @@
       <c r="L415" s="62"/>
     </row>
     <row r="416" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="9"/>
-      <c r="C416" s="31"/>
-      <c r="D416" s="31"/>
+      <c r="B416" s="9">
+        <f t="shared" si="9"/>
+        <v>391</v>
+      </c>
+      <c r="C416" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D416" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E416" s="10" t="s">
         <v>181</v>
       </c>
@@ -20111,9 +21286,16 @@
       <c r="L416" s="62"/>
     </row>
     <row r="417" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="9"/>
-      <c r="C417" s="31"/>
-      <c r="D417" s="31"/>
+      <c r="B417" s="9">
+        <f t="shared" si="9"/>
+        <v>392</v>
+      </c>
+      <c r="C417" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D417" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E417" s="10" t="s">
         <v>182</v>
       </c>
@@ -20134,9 +21316,16 @@
       <c r="L417" s="62"/>
     </row>
     <row r="418" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="9"/>
-      <c r="C418" s="31"/>
-      <c r="D418" s="31"/>
+      <c r="B418" s="9">
+        <f t="shared" si="9"/>
+        <v>393</v>
+      </c>
+      <c r="C418" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D418" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E418" s="10" t="s">
         <v>183</v>
       </c>
@@ -20157,9 +21346,16 @@
       <c r="L418" s="62"/>
     </row>
     <row r="419" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="9"/>
-      <c r="C419" s="31"/>
-      <c r="D419" s="31"/>
+      <c r="B419" s="9">
+        <f t="shared" si="9"/>
+        <v>394</v>
+      </c>
+      <c r="C419" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D419" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E419" s="10" t="s">
         <v>184</v>
       </c>
@@ -20180,9 +21376,16 @@
       <c r="L419" s="62"/>
     </row>
     <row r="420" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="9"/>
-      <c r="C420" s="31"/>
-      <c r="D420" s="31"/>
+      <c r="B420" s="9">
+        <f t="shared" si="9"/>
+        <v>395</v>
+      </c>
+      <c r="C420" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D420" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E420" s="10" t="s">
         <v>185</v>
       </c>
@@ -20203,9 +21406,16 @@
       <c r="L420" s="62"/>
     </row>
     <row r="421" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="9"/>
-      <c r="C421" s="31"/>
-      <c r="D421" s="31"/>
+      <c r="B421" s="9">
+        <f t="shared" ref="B421:B459" si="10">IF(G421&lt;&gt;"",ROW()-25,"")</f>
+        <v>396</v>
+      </c>
+      <c r="C421" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D421" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E421" s="10" t="s">
         <v>186</v>
       </c>
@@ -20226,9 +21436,16 @@
       <c r="L421" s="62"/>
     </row>
     <row r="422" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="9"/>
-      <c r="C422" s="31"/>
-      <c r="D422" s="31"/>
+      <c r="B422" s="9">
+        <f t="shared" si="10"/>
+        <v>397</v>
+      </c>
+      <c r="C422" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D422" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E422" s="10" t="s">
         <v>187</v>
       </c>
@@ -20249,9 +21466,16 @@
       <c r="L422" s="62"/>
     </row>
     <row r="423" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="9"/>
-      <c r="C423" s="31"/>
-      <c r="D423" s="31"/>
+      <c r="B423" s="9">
+        <f t="shared" si="10"/>
+        <v>398</v>
+      </c>
+      <c r="C423" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D423" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E423" s="10" t="s">
         <v>188</v>
       </c>
@@ -20272,9 +21496,16 @@
       <c r="L423" s="62"/>
     </row>
     <row r="424" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="9"/>
-      <c r="C424" s="31"/>
-      <c r="D424" s="31"/>
+      <c r="B424" s="9">
+        <f t="shared" si="10"/>
+        <v>399</v>
+      </c>
+      <c r="C424" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D424" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E424" s="10" t="s">
         <v>189</v>
       </c>
@@ -20295,9 +21526,16 @@
       <c r="L424" s="62"/>
     </row>
     <row r="425" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="9"/>
-      <c r="C425" s="31"/>
-      <c r="D425" s="31"/>
+      <c r="B425" s="9">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="C425" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D425" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E425" s="10" t="s">
         <v>190</v>
       </c>
@@ -20318,9 +21556,16 @@
       <c r="L425" s="62"/>
     </row>
     <row r="426" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="9"/>
-      <c r="C426" s="31"/>
-      <c r="D426" s="31"/>
+      <c r="B426" s="9">
+        <f t="shared" si="10"/>
+        <v>401</v>
+      </c>
+      <c r="C426" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D426" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E426" s="10" t="s">
         <v>191</v>
       </c>
@@ -20341,9 +21586,16 @@
       <c r="L426" s="62"/>
     </row>
     <row r="427" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="9"/>
-      <c r="C427" s="31"/>
-      <c r="D427" s="31"/>
+      <c r="B427" s="9">
+        <f t="shared" si="10"/>
+        <v>402</v>
+      </c>
+      <c r="C427" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D427" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E427" s="10" t="s">
         <v>192</v>
       </c>
@@ -20364,9 +21616,16 @@
       <c r="L427" s="62"/>
     </row>
     <row r="428" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="9"/>
-      <c r="C428" s="31"/>
-      <c r="D428" s="31"/>
+      <c r="B428" s="9">
+        <f t="shared" si="10"/>
+        <v>403</v>
+      </c>
+      <c r="C428" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D428" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E428" s="10" t="s">
         <v>193</v>
       </c>
@@ -20387,9 +21646,16 @@
       <c r="L428" s="62"/>
     </row>
     <row r="429" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="9"/>
-      <c r="C429" s="31"/>
-      <c r="D429" s="31"/>
+      <c r="B429" s="9">
+        <f t="shared" si="10"/>
+        <v>404</v>
+      </c>
+      <c r="C429" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D429" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E429" s="10" t="s">
         <v>194</v>
       </c>
@@ -20410,9 +21676,16 @@
       <c r="L429" s="62"/>
     </row>
     <row r="430" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="9"/>
-      <c r="C430" s="31"/>
-      <c r="D430" s="31"/>
+      <c r="B430" s="9">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="C430" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D430" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E430" s="10" t="s">
         <v>195</v>
       </c>
@@ -20433,9 +21706,16 @@
       <c r="L430" s="62"/>
     </row>
     <row r="431" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="9"/>
-      <c r="C431" s="31"/>
-      <c r="D431" s="31"/>
+      <c r="B431" s="9">
+        <f t="shared" si="10"/>
+        <v>406</v>
+      </c>
+      <c r="C431" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D431" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E431" s="10" t="s">
         <v>701</v>
       </c>
@@ -20456,9 +21736,16 @@
       <c r="L431" s="62"/>
     </row>
     <row r="432" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="9"/>
-      <c r="C432" s="31"/>
-      <c r="D432" s="31"/>
+      <c r="B432" s="9">
+        <f t="shared" si="10"/>
+        <v>407</v>
+      </c>
+      <c r="C432" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D432" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E432" s="10" t="s">
         <v>196</v>
       </c>
@@ -20479,9 +21766,16 @@
       <c r="L432" s="62"/>
     </row>
     <row r="433" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="9"/>
-      <c r="C433" s="31"/>
-      <c r="D433" s="31"/>
+      <c r="B433" s="9">
+        <f t="shared" si="10"/>
+        <v>408</v>
+      </c>
+      <c r="C433" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D433" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E433" s="10" t="s">
         <v>197</v>
       </c>
@@ -20502,9 +21796,16 @@
       <c r="L433" s="62"/>
     </row>
     <row r="434" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="9"/>
-      <c r="C434" s="31"/>
-      <c r="D434" s="31"/>
+      <c r="B434" s="9">
+        <f t="shared" si="10"/>
+        <v>409</v>
+      </c>
+      <c r="C434" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D434" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E434" s="10" t="s">
         <v>198</v>
       </c>
@@ -20525,9 +21826,16 @@
       <c r="L434" s="62"/>
     </row>
     <row r="435" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="9"/>
-      <c r="C435" s="31"/>
-      <c r="D435" s="31"/>
+      <c r="B435" s="9">
+        <f t="shared" si="10"/>
+        <v>410</v>
+      </c>
+      <c r="C435" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D435" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E435" s="10" t="s">
         <v>199</v>
       </c>
@@ -20548,9 +21856,16 @@
       <c r="L435" s="62"/>
     </row>
     <row r="436" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="9"/>
-      <c r="C436" s="31"/>
-      <c r="D436" s="31"/>
+      <c r="B436" s="9">
+        <f t="shared" si="10"/>
+        <v>411</v>
+      </c>
+      <c r="C436" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D436" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E436" s="10" t="s">
         <v>200</v>
       </c>
@@ -20571,9 +21886,16 @@
       <c r="L436" s="62"/>
     </row>
     <row r="437" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="9"/>
-      <c r="C437" s="31"/>
-      <c r="D437" s="31"/>
+      <c r="B437" s="9">
+        <f t="shared" si="10"/>
+        <v>412</v>
+      </c>
+      <c r="C437" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D437" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E437" s="10" t="s">
         <v>201</v>
       </c>
@@ -20594,9 +21916,16 @@
       <c r="L437" s="62"/>
     </row>
     <row r="438" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="9"/>
-      <c r="C438" s="31"/>
-      <c r="D438" s="31"/>
+      <c r="B438" s="9">
+        <f t="shared" si="10"/>
+        <v>413</v>
+      </c>
+      <c r="C438" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D438" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E438" s="10" t="s">
         <v>202</v>
       </c>
@@ -20617,9 +21946,16 @@
       <c r="L438" s="62"/>
     </row>
     <row r="439" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="9"/>
-      <c r="C439" s="31"/>
-      <c r="D439" s="31"/>
+      <c r="B439" s="9">
+        <f t="shared" si="10"/>
+        <v>414</v>
+      </c>
+      <c r="C439" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D439" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E439" s="10" t="s">
         <v>304</v>
       </c>
@@ -20640,9 +21976,16 @@
       <c r="L439" s="62"/>
     </row>
     <row r="440" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="9"/>
-      <c r="C440" s="31"/>
-      <c r="D440" s="31"/>
+      <c r="B440" s="9">
+        <f t="shared" si="10"/>
+        <v>415</v>
+      </c>
+      <c r="C440" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D440" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E440" s="10" t="s">
         <v>203</v>
       </c>
@@ -20663,9 +22006,16 @@
       <c r="L440" s="62"/>
     </row>
     <row r="441" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="9"/>
-      <c r="C441" s="31"/>
-      <c r="D441" s="31"/>
+      <c r="B441" s="9">
+        <f t="shared" si="10"/>
+        <v>416</v>
+      </c>
+      <c r="C441" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D441" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E441" s="10" t="s">
         <v>204</v>
       </c>
@@ -20686,9 +22036,16 @@
       <c r="L441" s="62"/>
     </row>
     <row r="442" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B442" s="9"/>
-      <c r="C442" s="31"/>
-      <c r="D442" s="31"/>
+      <c r="B442" s="9">
+        <f t="shared" si="10"/>
+        <v>417</v>
+      </c>
+      <c r="C442" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D442" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E442" s="10" t="s">
         <v>205</v>
       </c>
@@ -20709,9 +22066,16 @@
       <c r="L442" s="62"/>
     </row>
     <row r="443" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B443" s="9"/>
-      <c r="C443" s="31"/>
-      <c r="D443" s="31"/>
+      <c r="B443" s="9">
+        <f t="shared" si="10"/>
+        <v>418</v>
+      </c>
+      <c r="C443" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D443" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E443" s="10" t="s">
         <v>206</v>
       </c>
@@ -20732,9 +22096,16 @@
       <c r="L443" s="62"/>
     </row>
     <row r="444" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="9"/>
-      <c r="C444" s="31"/>
-      <c r="D444" s="31"/>
+      <c r="B444" s="9">
+        <f t="shared" si="10"/>
+        <v>419</v>
+      </c>
+      <c r="C444" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D444" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E444" s="10" t="s">
         <v>115</v>
       </c>
@@ -20755,9 +22126,16 @@
       <c r="L444" s="62"/>
     </row>
     <row r="445" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="9"/>
-      <c r="C445" s="31"/>
-      <c r="D445" s="31"/>
+      <c r="B445" s="9">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="C445" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D445" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E445" s="10" t="s">
         <v>207</v>
       </c>
@@ -20778,9 +22156,16 @@
       <c r="L445" s="62"/>
     </row>
     <row r="446" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="9"/>
-      <c r="C446" s="31"/>
-      <c r="D446" s="31"/>
+      <c r="B446" s="9">
+        <f t="shared" si="10"/>
+        <v>421</v>
+      </c>
+      <c r="C446" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D446" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E446" s="10" t="s">
         <v>116</v>
       </c>
@@ -20801,9 +22186,16 @@
       <c r="L446" s="62"/>
     </row>
     <row r="447" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="9"/>
-      <c r="C447" s="31"/>
-      <c r="D447" s="31"/>
+      <c r="B447" s="9">
+        <f t="shared" si="10"/>
+        <v>422</v>
+      </c>
+      <c r="C447" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D447" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E447" s="10" t="s">
         <v>208</v>
       </c>
@@ -20824,9 +22216,16 @@
       <c r="L447" s="62"/>
     </row>
     <row r="448" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="9"/>
-      <c r="C448" s="31"/>
-      <c r="D448" s="31"/>
+      <c r="B448" s="9">
+        <f t="shared" si="10"/>
+        <v>423</v>
+      </c>
+      <c r="C448" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D448" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E448" s="10" t="s">
         <v>209</v>
       </c>
@@ -20847,9 +22246,16 @@
       <c r="L448" s="62"/>
     </row>
     <row r="449" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B449" s="9"/>
-      <c r="C449" s="31"/>
-      <c r="D449" s="31"/>
+      <c r="B449" s="9">
+        <f t="shared" si="10"/>
+        <v>424</v>
+      </c>
+      <c r="C449" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D449" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E449" s="10" t="s">
         <v>117</v>
       </c>
@@ -20870,9 +22276,16 @@
       <c r="L449" s="62"/>
     </row>
     <row r="450" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B450" s="9"/>
-      <c r="C450" s="31"/>
-      <c r="D450" s="31"/>
+      <c r="B450" s="9">
+        <f t="shared" si="10"/>
+        <v>425</v>
+      </c>
+      <c r="C450" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D450" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E450" s="10" t="s">
         <v>702</v>
       </c>
@@ -20893,9 +22306,16 @@
       <c r="L450" s="62"/>
     </row>
     <row r="451" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B451" s="9"/>
-      <c r="C451" s="31"/>
-      <c r="D451" s="31"/>
+      <c r="B451" s="9">
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
+      <c r="C451" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D451" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E451" s="10" t="s">
         <v>210</v>
       </c>
@@ -20916,9 +22336,16 @@
       <c r="L451" s="62"/>
     </row>
     <row r="452" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="9"/>
-      <c r="C452" s="31"/>
-      <c r="D452" s="31"/>
+      <c r="B452" s="9">
+        <f t="shared" si="10"/>
+        <v>427</v>
+      </c>
+      <c r="C452" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D452" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E452" s="10" t="s">
         <v>305</v>
       </c>
@@ -20939,9 +22366,16 @@
       <c r="L452" s="62"/>
     </row>
     <row r="453" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B453" s="9"/>
-      <c r="C453" s="31"/>
-      <c r="D453" s="31"/>
+      <c r="B453" s="9">
+        <f t="shared" si="10"/>
+        <v>428</v>
+      </c>
+      <c r="C453" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D453" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E453" s="10" t="s">
         <v>211</v>
       </c>
@@ -20962,9 +22396,16 @@
       <c r="L453" s="62"/>
     </row>
     <row r="454" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="9"/>
-      <c r="C454" s="31"/>
-      <c r="D454" s="31"/>
+      <c r="B454" s="9">
+        <f t="shared" si="10"/>
+        <v>429</v>
+      </c>
+      <c r="C454" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D454" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E454" s="10" t="s">
         <v>212</v>
       </c>
@@ -20985,9 +22426,16 @@
       <c r="L454" s="62"/>
     </row>
     <row r="455" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B455" s="9"/>
-      <c r="C455" s="31"/>
-      <c r="D455" s="31"/>
+      <c r="B455" s="9">
+        <f t="shared" si="10"/>
+        <v>430</v>
+      </c>
+      <c r="C455" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D455" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E455" s="10" t="s">
         <v>213</v>
       </c>
@@ -21008,9 +22456,16 @@
       <c r="L455" s="62"/>
     </row>
     <row r="456" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B456" s="9"/>
-      <c r="C456" s="31"/>
-      <c r="D456" s="31"/>
+      <c r="B456" s="9">
+        <f t="shared" si="10"/>
+        <v>431</v>
+      </c>
+      <c r="C456" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D456" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E456" s="10" t="s">
         <v>214</v>
       </c>
@@ -21031,9 +22486,16 @@
       <c r="L456" s="62"/>
     </row>
     <row r="457" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B457" s="9"/>
-      <c r="C457" s="31"/>
-      <c r="D457" s="31"/>
+      <c r="B457" s="9">
+        <f t="shared" si="10"/>
+        <v>432</v>
+      </c>
+      <c r="C457" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D457" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E457" s="10" t="s">
         <v>703</v>
       </c>
@@ -21054,9 +22516,16 @@
       <c r="L457" s="62"/>
     </row>
     <row r="458" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="9"/>
-      <c r="C458" s="31"/>
-      <c r="D458" s="31"/>
+      <c r="B458" s="9">
+        <f t="shared" si="10"/>
+        <v>433</v>
+      </c>
+      <c r="C458" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="D458" s="31" t="s">
+        <v>763</v>
+      </c>
       <c r="E458" s="10" t="s">
         <v>215</v>
       </c>
@@ -21077,7 +22546,10 @@
       <c r="L458" s="62"/>
     </row>
     <row r="459" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B459" s="9"/>
+      <c r="B459" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="C459" s="31"/>
       <c r="D459" s="31"/>
       <c r="E459" s="10"/>
@@ -21112,16 +22584,16 @@
     </row>
     <row r="461" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="462" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="132" t="s">
+      <c r="B462" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C462" s="133"/>
-      <c r="D462" s="133"/>
-      <c r="E462" s="133"/>
-      <c r="F462" s="133"/>
-      <c r="G462" s="133"/>
-      <c r="H462" s="133"/>
-      <c r="I462" s="133"/>
+      <c r="C462" s="130"/>
+      <c r="D462" s="130"/>
+      <c r="E462" s="130"/>
+      <c r="F462" s="130"/>
+      <c r="G462" s="130"/>
+      <c r="H462" s="130"/>
+      <c r="I462" s="130"/>
       <c r="J462" s="19"/>
       <c r="K462" s="19"/>
       <c r="L462" s="24"/>
@@ -21258,6 +22730,11 @@
   </sheetData>
   <autoFilter ref="A25:N241"/>
   <mergeCells count="17">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B462:I462"/>
@@ -21270,11 +22747,6 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -21317,23 +22789,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
       <c r="R2" s="11" t="s">
         <v>94</v>
       </c>
@@ -21342,23 +22814,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="149"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
       <c r="R3" s="11" t="s">
         <v>105</v>
       </c>
@@ -21368,22 +22840,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="141"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="145"/>
       <c r="R4" s="11" t="s">
         <v>307</v>
       </c>
@@ -21393,22 +22865,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="141"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="145"/>
       <c r="R5" s="11" t="s">
         <v>100</v>
       </c>
@@ -21419,21 +22891,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="138"/>
       <c r="R6" s="11" t="s">
         <v>107</v>
       </c>
@@ -21444,21 +22916,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="138"/>
       <c r="R7" s="11" t="s">
         <v>90</v>
       </c>
@@ -21469,21 +22941,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
       <c r="R8" s="11" t="s">
         <v>315</v>
       </c>
@@ -21494,21 +22966,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
       <c r="R9" s="11" t="s">
         <v>97</v>
       </c>
@@ -21519,21 +22991,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
       <c r="R10" s="11" t="s">
         <v>328</v>
       </c>
@@ -21543,22 +23015,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="145"/>
       <c r="R11" s="11" t="s">
         <v>93</v>
       </c>
@@ -21568,22 +23040,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="145"/>
       <c r="R12" s="11" t="s">
         <v>92</v>
       </c>
@@ -21613,23 +23085,23 @@
       <c r="S13" s="92"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="149"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="144"/>
       <c r="R14" s="11" t="s">
         <v>308</v>
       </c>
@@ -21637,22 +23109,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="141"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="145"/>
       <c r="R15" s="11" t="s">
         <v>91</v>
       </c>
@@ -21661,21 +23133,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
       <c r="R16" s="11" t="s">
         <v>222</v>
       </c>
@@ -21707,21 +23179,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
       <c r="R18" s="11" t="s">
         <v>221</v>
       </c>
@@ -21730,21 +23202,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
       <c r="R19" s="11" t="s">
         <v>310</v>
       </c>
@@ -21753,21 +23225,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
       <c r="R20" s="11" t="s">
         <v>311</v>
       </c>
@@ -21776,21 +23248,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
       <c r="R21" s="11" t="s">
         <v>312</v>
       </c>
@@ -21799,21 +23271,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
       <c r="R22" s="11" t="s">
         <v>313</v>
       </c>
@@ -21822,21 +23294,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
       <c r="R23" s="11" t="s">
         <v>314</v>
       </c>
@@ -21845,21 +23317,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="136" t="s">
+      <c r="D24" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
       <c r="R24" s="11" t="s">
         <v>316</v>
       </c>
@@ -21868,21 +23340,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
       <c r="R25" s="11" t="s">
         <v>317</v>
       </c>
@@ -21891,21 +23363,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
       <c r="R26" s="11" t="s">
         <v>220</v>
       </c>
@@ -21934,22 +23406,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="141"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="145"/>
       <c r="R28" s="11" t="s">
         <v>319</v>
       </c>
@@ -21958,21 +23430,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="136" t="s">
+      <c r="D29" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="138"/>
       <c r="R29" s="11" t="s">
         <v>320</v>
       </c>
@@ -21981,21 +23453,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="138"/>
       <c r="R30" s="11" t="s">
         <v>322</v>
       </c>
@@ -22004,21 +23476,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="136" t="s">
+      <c r="D31" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="138"/>
       <c r="R31" s="11" t="s">
         <v>323</v>
       </c>
@@ -22027,21 +23499,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="136" t="s">
+      <c r="D32" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="138"/>
       <c r="R32" s="11" t="s">
         <v>321</v>
       </c>
@@ -22050,21 +23522,21 @@
     <row r="33" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="142" t="s">
+      <c r="D33" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="143"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="149"/>
       <c r="R33" s="11" t="s">
         <v>324</v>
       </c>
@@ -22073,21 +23545,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="139"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="147"/>
       <c r="R34" s="11" t="s">
         <v>325</v>
       </c>
@@ -22318,6 +23790,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -22332,22 +23820,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22382,23 +23854,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
       <c r="R2" s="60" t="s">
         <v>363</v>
       </c>
@@ -22406,23 +23878,23 @@
       <c r="T2" s="57"/>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
       <c r="R3" s="60" t="s">
         <v>89</v>
       </c>
@@ -22431,22 +23903,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="157"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="155"/>
       <c r="R4" s="60" t="s">
         <v>364</v>
       </c>
@@ -22455,22 +23927,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="157"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="155"/>
       <c r="R5" s="60" t="s">
         <v>365</v>
       </c>
@@ -22480,21 +23952,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="159"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="157"/>
       <c r="R6" s="60" t="s">
         <v>366</v>
       </c>
@@ -22504,21 +23976,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="159"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="157"/>
       <c r="R7" s="60" t="s">
         <v>367</v>
       </c>
@@ -22528,21 +24000,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="159"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="157"/>
       <c r="R8" s="60" t="s">
         <v>368</v>
       </c>
@@ -22552,21 +24024,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="157"/>
       <c r="R9" s="60" t="s">
         <v>369</v>
       </c>
@@ -22576,21 +24048,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="157"/>
       <c r="R10" s="60" t="s">
         <v>370</v>
       </c>
@@ -22599,22 +24071,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="157"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="155"/>
       <c r="R11" s="60" t="s">
         <v>111</v>
       </c>
@@ -22623,22 +24095,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="157"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="155"/>
       <c r="R12" s="60" t="s">
         <v>390</v>
       </c>
@@ -22668,23 +24140,23 @@
       <c r="T13" s="57"/>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
       <c r="R14" s="60" t="s">
         <v>392</v>
       </c>
@@ -22693,22 +24165,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="157"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="155"/>
       <c r="R15" s="60" t="s">
         <v>393</v>
       </c>
@@ -22718,21 +24190,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="157"/>
       <c r="R16" s="60" t="s">
         <v>441</v>
       </c>
@@ -22766,21 +24238,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="157"/>
       <c r="R18" s="60" t="s">
         <v>443</v>
       </c>
@@ -22790,21 +24262,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="157"/>
       <c r="R19" s="60" t="s">
         <v>444</v>
       </c>
@@ -22814,21 +24286,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="157"/>
       <c r="R20" s="60" t="s">
         <v>445</v>
       </c>
@@ -22838,21 +24310,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="157"/>
       <c r="R21" s="60" t="s">
         <v>446</v>
       </c>
@@ -22862,21 +24334,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="158" t="s">
+      <c r="D22" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="157"/>
       <c r="R22" s="60" t="s">
         <v>447</v>
       </c>
@@ -22886,21 +24358,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="157"/>
       <c r="R23" s="60" t="s">
         <v>448</v>
       </c>
@@ -22910,21 +24382,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="157"/>
       <c r="R24" s="60" t="s">
         <v>449</v>
       </c>
@@ -22934,21 +24406,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="158" t="s">
+      <c r="D25" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="157"/>
       <c r="R25" s="60" t="s">
         <v>450</v>
       </c>
@@ -22958,21 +24430,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="157"/>
       <c r="R26" s="60"/>
       <c r="S26" s="92"/>
       <c r="T26" s="92"/>
@@ -22980,21 +24452,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="158" t="s">
+      <c r="D27" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="157"/>
       <c r="R27" s="60"/>
       <c r="S27" s="92"/>
       <c r="T27" s="92"/>
@@ -23021,22 +24493,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="155"/>
       <c r="R29" s="60"/>
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
@@ -23044,21 +24516,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="157"/>
       <c r="R30" s="60"/>
       <c r="S30" s="92"/>
       <c r="T30" s="92"/>
@@ -23066,21 +24538,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="158" t="s">
+      <c r="D31" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="157"/>
       <c r="R31" s="60"/>
       <c r="S31" s="92"/>
       <c r="T31" s="92"/>
@@ -23088,21 +24560,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="158" t="s">
+      <c r="D32" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="157"/>
       <c r="R32" s="60"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
@@ -23110,21 +24582,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="157"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -23132,21 +24604,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
-      <c r="P34" s="161"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="151"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -23154,21 +24626,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="160" t="s">
+      <c r="D35" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="161"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="151"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -23176,21 +24648,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="162" t="s">
+      <c r="D36" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="163"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="153"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -23267,14 +24739,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -23287,18 +24763,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/SO SACH/0310686815/2015/BANGKE - 15.xlsx
+++ b/SO SACH/0310686815/2015/BANGKE - 15.xlsx
@@ -3190,6 +3190,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3211,17 +3223,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3235,23 +3244,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3271,45 +3286,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3327,6 +3303,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3369,7 +3369,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3574,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4037,9 +4037,9 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G109" activeCellId="2" sqref="G99 G103 G109"/>
+      <selection pane="bottomLeft" activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4095,70 +4095,70 @@
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:15" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
+      <c r="B6" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="127" t="str">
-        <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 2 Năm 2014</v>
-      </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
+      <c r="B7" s="120" t="str">
+        <f>"Kỳ tính thuế: Quý   "&amp;O14&amp;"  Năm  "&amp;YEAR(F26)</f>
+        <v>Kỳ tính thuế: Quý   2  Năm  2014</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
@@ -4183,67 +4183,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="118" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="119" t="s">
+      <c r="K12" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="118" t="s">
+      <c r="L12" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="118" t="s">
+      <c r="M12" s="122" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="120"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="120"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="41" t="s">
         <v>43</v>
       </c>
@@ -4256,13 +4256,13 @@
       <c r="F14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="117" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>28</v>
@@ -8897,8 +8897,8 @@
       <c r="H140" s="37"/>
       <c r="I140" s="37"/>
       <c r="J140" s="113" t="str">
-        <f>"Bình Chánh, Ngày  "&amp;N14&amp;"   Tháng   "&amp;O14&amp;"   Năm  "&amp;YEAR(F49)</f>
-        <v>Bình Chánh, Ngày  28   Tháng   2   Năm  2014</v>
+        <f>"Bình Chánh, "&amp;IF($O$14=1,"Ngày  31  Tháng  03  ",IF($O$14=2,"Ngày  30  Tháng  06  ",IF($O$14=3," Ngày 30  Tháng  09  ",IF($O$14=4," Ngày  31  Tháng  12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
+        <v>Bình Chánh, Ngày  30  Tháng  06  Năm  2014</v>
       </c>
       <c r="K140" s="113"/>
       <c r="N140" s="55"/>
@@ -8961,11 +8961,6 @@
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -8975,10 +8970,15 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -8998,9 +8998,9 @@
   <dimension ref="A1:N472"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="C256" sqref="C256:D458"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9055,66 +9055,66 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
+      <c r="B6" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="str">
-        <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 2 Năm 2015</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
+      <c r="B7" s="131" t="str">
+        <f>"Kỳ tính thuế: Quý   "&amp;N14&amp;"  Năm  "&amp;YEAR(F26)</f>
+        <v>Kỳ tính thuế: Quý   2  Năm  2015</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -9138,62 +9138,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="132" t="s">
+      <c r="H12" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="132" t="s">
+      <c r="I12" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="132" t="s">
+      <c r="J12" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="132" t="s">
+      <c r="K12" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="132" t="s">
+      <c r="L12" s="135" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="132"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="112" t="s">
         <v>43</v>
       </c>
@@ -9206,12 +9206,12 @@
       <c r="F14" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
       <c r="N14" s="116">
         <v>2</v>
       </c>
@@ -9252,16 +9252,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
@@ -9295,16 +9295,16 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="24"/>
@@ -9338,16 +9338,16 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="24"/>
@@ -22584,16 +22584,16 @@
     </row>
     <row r="461" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="462" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="129" t="s">
+      <c r="B462" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C462" s="130"/>
-      <c r="D462" s="130"/>
-      <c r="E462" s="130"/>
-      <c r="F462" s="130"/>
-      <c r="G462" s="130"/>
-      <c r="H462" s="130"/>
-      <c r="I462" s="130"/>
+      <c r="C462" s="133"/>
+      <c r="D462" s="133"/>
+      <c r="E462" s="133"/>
+      <c r="F462" s="133"/>
+      <c r="G462" s="133"/>
+      <c r="H462" s="133"/>
+      <c r="I462" s="133"/>
       <c r="J462" s="19"/>
       <c r="K462" s="19"/>
       <c r="L462" s="24"/>
@@ -22676,8 +22676,8 @@
       <c r="G468" s="15"/>
       <c r="H468" s="15"/>
       <c r="I468" s="35" t="str">
-        <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
-        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2015</v>
+        <f>"Bình Chánh, "&amp;IF($N$14=1,"Ngày  31  Tháng  03  ",IF($N$14=2,"Ngày  30  Tháng  06  ",IF($N$14=3," Ngày 30  Tháng  09  ",IF($N$14=4," Ngày  31  Tháng  12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
+        <v>Bình Chánh, Ngày  30  Tháng  06  Năm  2015</v>
       </c>
     </row>
     <row r="469" spans="2:12" x14ac:dyDescent="0.2">
@@ -22730,11 +22730,6 @@
   </sheetData>
   <autoFilter ref="A25:N241"/>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B462:I462"/>
@@ -22747,10 +22742,15 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -22789,23 +22789,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
       <c r="R2" s="11" t="s">
         <v>94</v>
       </c>
@@ -22814,23 +22814,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="144"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
       <c r="R3" s="11" t="s">
         <v>105</v>
       </c>
@@ -22840,22 +22840,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="145"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="141"/>
       <c r="R4" s="11" t="s">
         <v>307</v>
       </c>
@@ -22865,22 +22865,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="145"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="141"/>
       <c r="R5" s="11" t="s">
         <v>100</v>
       </c>
@@ -22891,21 +22891,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="137"/>
       <c r="R6" s="11" t="s">
         <v>107</v>
       </c>
@@ -22916,21 +22916,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="137"/>
       <c r="R7" s="11" t="s">
         <v>90</v>
       </c>
@@ -22941,21 +22941,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="137"/>
       <c r="R8" s="11" t="s">
         <v>315</v>
       </c>
@@ -22966,21 +22966,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
       <c r="R9" s="11" t="s">
         <v>97</v>
       </c>
@@ -22991,21 +22991,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="136" t="s">
+      <c r="D10" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
       <c r="R10" s="11" t="s">
         <v>328</v>
       </c>
@@ -23015,22 +23015,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="145"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="141"/>
       <c r="R11" s="11" t="s">
         <v>93</v>
       </c>
@@ -23040,22 +23040,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="145"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="141"/>
       <c r="R12" s="11" t="s">
         <v>92</v>
       </c>
@@ -23085,23 +23085,23 @@
       <c r="S13" s="92"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="144"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="149"/>
       <c r="R14" s="11" t="s">
         <v>308</v>
       </c>
@@ -23109,22 +23109,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="145"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="141"/>
       <c r="R15" s="11" t="s">
         <v>91</v>
       </c>
@@ -23133,21 +23133,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
       <c r="R16" s="11" t="s">
         <v>222</v>
       </c>
@@ -23179,21 +23179,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
       <c r="R18" s="11" t="s">
         <v>221</v>
       </c>
@@ -23202,21 +23202,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
       <c r="R19" s="11" t="s">
         <v>310</v>
       </c>
@@ -23225,21 +23225,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
       <c r="R20" s="11" t="s">
         <v>311</v>
       </c>
@@ -23248,21 +23248,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
       <c r="R21" s="11" t="s">
         <v>312</v>
       </c>
@@ -23271,21 +23271,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
       <c r="R22" s="11" t="s">
         <v>313</v>
       </c>
@@ -23294,21 +23294,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
       <c r="R23" s="11" t="s">
         <v>314</v>
       </c>
@@ -23317,21 +23317,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
       <c r="R24" s="11" t="s">
         <v>316</v>
       </c>
@@ -23340,21 +23340,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
       <c r="R25" s="11" t="s">
         <v>317</v>
       </c>
@@ -23363,21 +23363,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="137" t="s">
+      <c r="D26" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
       <c r="R26" s="11" t="s">
         <v>220</v>
       </c>
@@ -23406,22 +23406,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="145"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="141"/>
       <c r="R28" s="11" t="s">
         <v>319</v>
       </c>
@@ -23430,21 +23430,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="138"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
       <c r="R29" s="11" t="s">
         <v>320</v>
       </c>
@@ -23453,21 +23453,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="138"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
       <c r="R30" s="11" t="s">
         <v>322</v>
       </c>
@@ -23476,21 +23476,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="137" t="s">
+      <c r="D31" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="138"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
       <c r="R31" s="11" t="s">
         <v>323</v>
       </c>
@@ -23499,21 +23499,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="137" t="s">
+      <c r="D32" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="138"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
       <c r="R32" s="11" t="s">
         <v>321</v>
       </c>
@@ -23522,21 +23522,21 @@
     <row r="33" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="148" t="s">
+      <c r="D33" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="149"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="143"/>
       <c r="R33" s="11" t="s">
         <v>324</v>
       </c>
@@ -23545,21 +23545,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="146" t="s">
+      <c r="D34" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
-      <c r="O34" s="146"/>
-      <c r="P34" s="147"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="139"/>
       <c r="R34" s="11" t="s">
         <v>325</v>
       </c>
@@ -23790,22 +23790,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -23820,6 +23804,22 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23854,23 +23854,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
       <c r="R2" s="60" t="s">
         <v>363</v>
       </c>
@@ -23878,23 +23878,23 @@
       <c r="T2" s="57"/>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
       <c r="R3" s="60" t="s">
         <v>89</v>
       </c>
@@ -23903,22 +23903,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="155"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="157"/>
       <c r="R4" s="60" t="s">
         <v>364</v>
       </c>
@@ -23927,22 +23927,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="157"/>
       <c r="R5" s="60" t="s">
         <v>365</v>
       </c>
@@ -23952,21 +23952,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="159"/>
       <c r="R6" s="60" t="s">
         <v>366</v>
       </c>
@@ -23976,21 +23976,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="159"/>
       <c r="R7" s="60" t="s">
         <v>367</v>
       </c>
@@ -24000,21 +24000,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="159"/>
       <c r="R8" s="60" t="s">
         <v>368</v>
       </c>
@@ -24024,21 +24024,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="159"/>
       <c r="R9" s="60" t="s">
         <v>369</v>
       </c>
@@ -24048,21 +24048,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
       <c r="R10" s="60" t="s">
         <v>370</v>
       </c>
@@ -24071,22 +24071,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="157"/>
       <c r="R11" s="60" t="s">
         <v>111</v>
       </c>
@@ -24095,22 +24095,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="157"/>
       <c r="R12" s="60" t="s">
         <v>390</v>
       </c>
@@ -24140,23 +24140,23 @@
       <c r="T13" s="57"/>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
       <c r="R14" s="60" t="s">
         <v>392</v>
       </c>
@@ -24165,22 +24165,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="157"/>
       <c r="R15" s="60" t="s">
         <v>393</v>
       </c>
@@ -24190,21 +24190,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="159"/>
       <c r="R16" s="60" t="s">
         <v>441</v>
       </c>
@@ -24238,21 +24238,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="156" t="s">
+      <c r="D18" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="159"/>
       <c r="R18" s="60" t="s">
         <v>443</v>
       </c>
@@ -24262,21 +24262,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="156" t="s">
+      <c r="D19" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="159"/>
       <c r="R19" s="60" t="s">
         <v>444</v>
       </c>
@@ -24286,21 +24286,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="156" t="s">
+      <c r="D20" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="159"/>
       <c r="R20" s="60" t="s">
         <v>445</v>
       </c>
@@ -24310,21 +24310,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="159"/>
       <c r="R21" s="60" t="s">
         <v>446</v>
       </c>
@@ -24334,21 +24334,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="159"/>
       <c r="R22" s="60" t="s">
         <v>447</v>
       </c>
@@ -24358,21 +24358,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="159"/>
       <c r="R23" s="60" t="s">
         <v>448</v>
       </c>
@@ -24382,21 +24382,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="159"/>
       <c r="R24" s="60" t="s">
         <v>449</v>
       </c>
@@ -24406,21 +24406,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="159"/>
       <c r="R25" s="60" t="s">
         <v>450</v>
       </c>
@@ -24430,21 +24430,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="159"/>
       <c r="R26" s="60"/>
       <c r="S26" s="92"/>
       <c r="T26" s="92"/>
@@ -24452,21 +24452,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="159"/>
       <c r="R27" s="60"/>
       <c r="S27" s="92"/>
       <c r="T27" s="92"/>
@@ -24493,22 +24493,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="157"/>
       <c r="R29" s="60"/>
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
@@ -24516,21 +24516,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159"/>
       <c r="R30" s="60"/>
       <c r="S30" s="92"/>
       <c r="T30" s="92"/>
@@ -24538,21 +24538,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="159"/>
       <c r="R31" s="60"/>
       <c r="S31" s="92"/>
       <c r="T31" s="92"/>
@@ -24560,21 +24560,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="159"/>
       <c r="R32" s="60"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
@@ -24582,21 +24582,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="156" t="s">
+      <c r="D33" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -24604,21 +24604,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="150" t="s">
+      <c r="D34" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="150"/>
-      <c r="P34" s="151"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="160"/>
+      <c r="P34" s="161"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -24626,21 +24626,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="150" t="s">
+      <c r="D35" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
-      <c r="P35" s="151"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="161"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -24648,21 +24648,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="152" t="s">
+      <c r="D36" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="153"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="163"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -24739,6 +24739,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -24751,26 +24771,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/SO SACH/0310686815/2015/BANGKE - 15.xlsx
+++ b/SO SACH/0310686815/2015/BANGKE - 15.xlsx
@@ -3499,6 +3499,18 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3520,17 +3532,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3544,23 +3553,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3580,45 +3595,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3636,6 +3612,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3679,7 +3679,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3884,7 +3884,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4328,13 +4328,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:Q225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
     </sheetView>
@@ -4393,70 +4393,70 @@
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
     </row>
     <row r="6" spans="1:15" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="str">
+      <c r="B7" s="149" t="str">
         <f>"Kỳ tính thuế: Quý   "&amp;O14&amp;"  Năm  "&amp;YEAR(F26)</f>
         <v>Kỳ tính thuế: Quý   1  Năm  2015</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
     </row>
     <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
@@ -4481,67 +4481,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="147" t="s">
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="147" t="s">
+      <c r="I12" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="147" t="s">
+      <c r="J12" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="148" t="s">
+      <c r="K12" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="147" t="s">
+      <c r="L12" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="147" t="s">
+      <c r="M12" s="151" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="149"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="149"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="41" t="s">
         <v>43</v>
       </c>
@@ -4554,13 +4554,13 @@
       <c r="F14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
       <c r="N14" s="116"/>
       <c r="O14" s="115">
         <v>1</v>
@@ -4706,7 +4706,7 @@
       <c r="P18" s="142"/>
       <c r="Q18" s="144"/>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="47">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4832,7 +4832,7 @@
       <c r="O21" s="55"/>
       <c r="P21" s="54"/>
     </row>
-    <row r="22" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="47">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4957,7 +4957,7 @@
       <c r="N24" s="54"/>
       <c r="O24" s="55"/>
     </row>
-    <row r="25" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="47">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4999,7 +4999,7 @@
       <c r="O25" s="55"/>
       <c r="P25" s="54"/>
     </row>
-    <row r="26" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="47">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -5041,7 +5041,7 @@
       <c r="O26" s="55"/>
       <c r="P26" s="54"/>
     </row>
-    <row r="27" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="47">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5083,7 +5083,7 @@
       <c r="O27" s="55"/>
       <c r="P27" s="54"/>
     </row>
-    <row r="28" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="47">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5125,7 +5125,7 @@
       <c r="O28" s="55"/>
       <c r="P28" s="54"/>
     </row>
-    <row r="29" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="47">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -5167,7 +5167,7 @@
       <c r="O29" s="55"/>
       <c r="P29" s="54"/>
     </row>
-    <row r="30" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="47">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -5209,7 +5209,7 @@
       <c r="O30" s="55"/>
       <c r="P30" s="54"/>
     </row>
-    <row r="31" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="47">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -5251,7 +5251,7 @@
       <c r="O31" s="55"/>
       <c r="P31" s="54"/>
     </row>
-    <row r="32" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="47">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -5292,7 +5292,7 @@
       <c r="N32" s="54"/>
       <c r="O32" s="55"/>
     </row>
-    <row r="33" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="47">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -5333,7 +5333,7 @@
       <c r="N33" s="54"/>
       <c r="O33" s="55"/>
     </row>
-    <row r="34" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="47">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -5374,7 +5374,7 @@
       <c r="N34" s="54"/>
       <c r="O34" s="55"/>
     </row>
-    <row r="35" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="47">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -5415,7 +5415,7 @@
       <c r="N35" s="54"/>
       <c r="O35" s="55"/>
     </row>
-    <row r="36" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="47">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -5456,7 +5456,7 @@
       <c r="N36" s="54"/>
       <c r="O36" s="55"/>
     </row>
-    <row r="37" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -5498,7 +5498,7 @@
       <c r="O37" s="55"/>
       <c r="P37" s="56"/>
     </row>
-    <row r="38" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="47">
         <f>IF(G38&lt;&gt;"",ROW()-16,"")</f>
         <v>22</v>
@@ -5540,7 +5540,7 @@
       <c r="O38" s="55"/>
       <c r="P38" s="56"/>
     </row>
-    <row r="39" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="47">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -5582,7 +5582,7 @@
       <c r="O39" s="55"/>
       <c r="P39" s="56"/>
     </row>
-    <row r="40" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="47">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -5624,7 +5624,7 @@
       <c r="O40" s="55"/>
       <c r="P40" s="56"/>
     </row>
-    <row r="41" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="47">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -5665,7 +5665,7 @@
       <c r="N41" s="54"/>
       <c r="O41" s="55"/>
     </row>
-    <row r="42" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="47">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -5706,7 +5706,7 @@
       <c r="N42" s="54"/>
       <c r="O42" s="55"/>
     </row>
-    <row r="43" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="47">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -5747,7 +5747,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="47">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -5788,7 +5788,7 @@
       <c r="N44" s="54"/>
       <c r="O44" s="55"/>
     </row>
-    <row r="45" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="47">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -5829,7 +5829,7 @@
       <c r="N45" s="54"/>
       <c r="O45" s="55"/>
     </row>
-    <row r="46" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="47">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -5870,7 +5870,7 @@
       <c r="N46" s="54"/>
       <c r="O46" s="55"/>
     </row>
-    <row r="47" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="47">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -5911,7 +5911,7 @@
       <c r="N47" s="54"/>
       <c r="O47" s="55"/>
     </row>
-    <row r="48" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="47">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -5952,7 +5952,7 @@
       <c r="N48" s="54"/>
       <c r="O48" s="55"/>
     </row>
-    <row r="49" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="47">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -5993,7 +5993,7 @@
       <c r="N49" s="54"/>
       <c r="O49" s="55"/>
     </row>
-    <row r="50" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="47">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -6034,7 +6034,7 @@
       <c r="N50" s="54"/>
       <c r="O50" s="55"/>
     </row>
-    <row r="51" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="47">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -6198,7 +6198,7 @@
       <c r="N54" s="54"/>
       <c r="O54" s="55"/>
     </row>
-    <row r="55" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="47">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -6240,7 +6240,7 @@
       <c r="O55" s="55"/>
       <c r="P55" s="54"/>
     </row>
-    <row r="56" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="47">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -6282,7 +6282,7 @@
       <c r="O56" s="55"/>
       <c r="P56" s="54"/>
     </row>
-    <row r="57" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="47">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -6324,7 +6324,7 @@
       <c r="O57" s="55"/>
       <c r="P57" s="54"/>
     </row>
-    <row r="58" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="47">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -6365,7 +6365,7 @@
       <c r="N58" s="54"/>
       <c r="O58" s="55"/>
     </row>
-    <row r="59" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="47">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -6406,7 +6406,7 @@
       <c r="N59" s="54"/>
       <c r="O59" s="55"/>
     </row>
-    <row r="60" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="47">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -6447,7 +6447,7 @@
       <c r="N60" s="54"/>
       <c r="O60" s="55"/>
     </row>
-    <row r="61" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="47">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -6488,7 +6488,7 @@
       <c r="N61" s="54"/>
       <c r="O61" s="55"/>
     </row>
-    <row r="62" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="47">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -6529,7 +6529,7 @@
       <c r="N62" s="54"/>
       <c r="O62" s="55"/>
     </row>
-    <row r="63" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="47">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -6571,7 +6571,7 @@
       <c r="O63" s="55"/>
       <c r="P63" s="56"/>
     </row>
-    <row r="64" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="47">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -6613,7 +6613,7 @@
       <c r="O64" s="55"/>
       <c r="P64" s="56"/>
     </row>
-    <row r="65" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="47">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -6737,7 +6737,7 @@
       <c r="N67" s="54"/>
       <c r="O67" s="55"/>
     </row>
-    <row r="68" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="47">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -6779,7 +6779,7 @@
       <c r="O68" s="55"/>
       <c r="P68" s="54"/>
     </row>
-    <row r="69" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="47">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -6821,7 +6821,7 @@
       <c r="O69" s="55"/>
       <c r="P69" s="54"/>
     </row>
-    <row r="70" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="47">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -6863,7 +6863,7 @@
       <c r="O70" s="55"/>
       <c r="P70" s="54"/>
     </row>
-    <row r="71" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="47">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -6905,7 +6905,7 @@
       <c r="O71" s="55"/>
       <c r="P71" s="54"/>
     </row>
-    <row r="72" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="47">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -6947,7 +6947,7 @@
       <c r="O72" s="55"/>
       <c r="P72" s="54"/>
     </row>
-    <row r="73" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="47">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -6989,7 +6989,7 @@
       <c r="O73" s="55"/>
       <c r="P73" s="54"/>
     </row>
-    <row r="74" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="47">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -7031,7 +7031,7 @@
       <c r="O74" s="55"/>
       <c r="P74" s="54"/>
     </row>
-    <row r="75" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="47">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -7073,7 +7073,7 @@
       <c r="O75" s="55"/>
       <c r="P75" s="54"/>
     </row>
-    <row r="76" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="47">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -7115,7 +7115,7 @@
       <c r="O76" s="55"/>
       <c r="P76" s="54"/>
     </row>
-    <row r="77" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="47">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -7157,7 +7157,7 @@
       <c r="O77" s="55"/>
       <c r="P77" s="54"/>
     </row>
-    <row r="78" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="47">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -7199,7 +7199,7 @@
       <c r="O78" s="55"/>
       <c r="P78" s="54"/>
     </row>
-    <row r="79" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="47">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -7241,7 +7241,7 @@
       <c r="O79" s="55"/>
       <c r="P79" s="54"/>
     </row>
-    <row r="80" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="47">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -7283,7 +7283,7 @@
       <c r="O80" s="55"/>
       <c r="P80" s="54"/>
     </row>
-    <row r="81" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="47">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -7325,7 +7325,7 @@
       <c r="O81" s="55"/>
       <c r="P81" s="54"/>
     </row>
-    <row r="82" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="47">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -7367,7 +7367,7 @@
       <c r="O82" s="55"/>
       <c r="P82" s="54"/>
     </row>
-    <row r="83" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="47">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -7409,7 +7409,7 @@
       <c r="O83" s="55"/>
       <c r="P83" s="54"/>
     </row>
-    <row r="84" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="47">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -7451,7 +7451,7 @@
       <c r="O84" s="55"/>
       <c r="P84" s="54"/>
     </row>
-    <row r="85" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="47">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -7493,7 +7493,7 @@
       <c r="O85" s="55"/>
       <c r="P85" s="54"/>
     </row>
-    <row r="86" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="47">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -7535,7 +7535,7 @@
       <c r="O86" s="55"/>
       <c r="P86" s="54"/>
     </row>
-    <row r="87" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="47">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -7577,7 +7577,7 @@
       <c r="O87" s="55"/>
       <c r="P87" s="54"/>
     </row>
-    <row r="88" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="47">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -7619,7 +7619,7 @@
       <c r="O88" s="55"/>
       <c r="P88" s="54"/>
     </row>
-    <row r="89" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="47">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -7661,7 +7661,7 @@
       <c r="O89" s="55"/>
       <c r="P89" s="54"/>
     </row>
-    <row r="90" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="47">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -7703,7 +7703,7 @@
       <c r="O90" s="55"/>
       <c r="P90" s="54"/>
     </row>
-    <row r="91" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="47">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -7745,7 +7745,7 @@
       <c r="O91" s="55"/>
       <c r="P91" s="54"/>
     </row>
-    <row r="92" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="47">
         <f t="shared" ref="B92:B110" si="3">IF(G92&lt;&gt;"",ROW()-16,"")</f>
         <v>76</v>
@@ -7787,7 +7787,7 @@
       <c r="O92" s="55"/>
       <c r="P92" s="54"/>
     </row>
-    <row r="93" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="47">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -7829,7 +7829,7 @@
       <c r="O93" s="55"/>
       <c r="P93" s="54"/>
     </row>
-    <row r="94" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="47">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -7871,7 +7871,7 @@
       <c r="O94" s="55"/>
       <c r="P94" s="54"/>
     </row>
-    <row r="95" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="47">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -7913,7 +7913,7 @@
       <c r="O95" s="55"/>
       <c r="P95" s="54"/>
     </row>
-    <row r="96" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="47">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -7955,7 +7955,7 @@
       <c r="O96" s="55"/>
       <c r="P96" s="54"/>
     </row>
-    <row r="97" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="47">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -7997,7 +7997,7 @@
       <c r="O97" s="55"/>
       <c r="P97" s="54"/>
     </row>
-    <row r="98" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="47">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -8039,7 +8039,7 @@
       <c r="O98" s="55"/>
       <c r="P98" s="54"/>
     </row>
-    <row r="99" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="47">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -8081,7 +8081,7 @@
       <c r="O99" s="55"/>
       <c r="P99" s="54"/>
     </row>
-    <row r="100" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="47">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -8123,7 +8123,7 @@
       <c r="O100" s="55"/>
       <c r="P100" s="54"/>
     </row>
-    <row r="101" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="47">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -8165,7 +8165,7 @@
       <c r="O101" s="55"/>
       <c r="P101" s="54"/>
     </row>
-    <row r="102" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="47">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -8207,7 +8207,7 @@
       <c r="O102" s="55"/>
       <c r="P102" s="54"/>
     </row>
-    <row r="103" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="47">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -8249,7 +8249,7 @@
       <c r="O103" s="55"/>
       <c r="P103" s="54"/>
     </row>
-    <row r="104" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="47">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -8291,7 +8291,7 @@
       <c r="O104" s="55"/>
       <c r="P104" s="54"/>
     </row>
-    <row r="105" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="47">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -8333,7 +8333,7 @@
       <c r="O105" s="55"/>
       <c r="P105" s="54"/>
     </row>
-    <row r="106" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="47">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -8375,7 +8375,7 @@
       <c r="O106" s="55"/>
       <c r="P106" s="54"/>
     </row>
-    <row r="107" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="47">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -8417,7 +8417,7 @@
       <c r="O107" s="55"/>
       <c r="P107" s="54"/>
     </row>
-    <row r="108" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="47">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -8459,7 +8459,7 @@
       <c r="O108" s="55"/>
       <c r="P108" s="54"/>
     </row>
-    <row r="109" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="47">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -8501,7 +8501,7 @@
       <c r="O109" s="55"/>
       <c r="P109" s="54"/>
     </row>
-    <row r="110" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="47">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -8543,7 +8543,7 @@
       <c r="O110" s="55"/>
       <c r="P110" s="54"/>
     </row>
-    <row r="111" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="47">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -8585,7 +8585,7 @@
       <c r="O111" s="55"/>
       <c r="P111" s="54"/>
     </row>
-    <row r="112" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="47">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -8626,7 +8626,7 @@
       <c r="N112" s="54"/>
       <c r="O112" s="55"/>
     </row>
-    <row r="113" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="47">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -8667,7 +8667,7 @@
       <c r="N113" s="54"/>
       <c r="O113" s="55"/>
     </row>
-    <row r="114" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="47">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -8708,7 +8708,7 @@
       <c r="N114" s="54"/>
       <c r="O114" s="55"/>
     </row>
-    <row r="115" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="47">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -8749,7 +8749,7 @@
       <c r="N115" s="54"/>
       <c r="O115" s="55"/>
     </row>
-    <row r="116" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="47">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -8790,7 +8790,7 @@
       <c r="N116" s="54"/>
       <c r="O116" s="55"/>
     </row>
-    <row r="117" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="47">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -8831,7 +8831,7 @@
       <c r="N117" s="54"/>
       <c r="O117" s="55"/>
     </row>
-    <row r="118" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="47">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -8872,7 +8872,7 @@
       <c r="N118" s="54"/>
       <c r="O118" s="55"/>
     </row>
-    <row r="119" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="47">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -8913,7 +8913,7 @@
       <c r="N119" s="54"/>
       <c r="O119" s="55"/>
     </row>
-    <row r="120" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="47">
         <f t="shared" ref="B120:B150" si="8">IF(G120&lt;&gt;"",ROW()-16,"")</f>
         <v>104</v>
@@ -8954,7 +8954,7 @@
       <c r="N120" s="54"/>
       <c r="O120" s="55"/>
     </row>
-    <row r="121" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="47">
         <f t="shared" si="8"/>
         <v>105</v>
@@ -8995,7 +8995,7 @@
       <c r="N121" s="54"/>
       <c r="O121" s="55"/>
     </row>
-    <row r="122" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="47">
         <f t="shared" si="8"/>
         <v>106</v>
@@ -9036,7 +9036,7 @@
       <c r="N122" s="54"/>
       <c r="O122" s="55"/>
     </row>
-    <row r="123" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="47">
         <f t="shared" si="8"/>
         <v>107</v>
@@ -9077,7 +9077,7 @@
       <c r="N123" s="54"/>
       <c r="O123" s="55"/>
     </row>
-    <row r="124" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="47">
         <f t="shared" si="8"/>
         <v>108</v>
@@ -9118,7 +9118,7 @@
       <c r="N124" s="54"/>
       <c r="O124" s="55"/>
     </row>
-    <row r="125" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="47">
         <f t="shared" si="8"/>
         <v>109</v>
@@ -9160,7 +9160,7 @@
       <c r="O125" s="55"/>
       <c r="P125" s="56"/>
     </row>
-    <row r="126" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="47">
         <f t="shared" si="8"/>
         <v>110</v>
@@ -9201,7 +9201,7 @@
       <c r="N126" s="54"/>
       <c r="O126" s="55"/>
     </row>
-    <row r="127" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="47">
         <f t="shared" si="8"/>
         <v>111</v>
@@ -9243,7 +9243,7 @@
       <c r="O127" s="55"/>
       <c r="P127" s="56"/>
     </row>
-    <row r="128" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="47">
         <f t="shared" si="8"/>
         <v>112</v>
@@ -9284,7 +9284,7 @@
       <c r="N128" s="54"/>
       <c r="O128" s="55"/>
     </row>
-    <row r="129" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="47">
         <f t="shared" si="8"/>
         <v>113</v>
@@ -9326,7 +9326,7 @@
       <c r="O129" s="55"/>
       <c r="P129" s="56"/>
     </row>
-    <row r="130" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="47">
         <f t="shared" si="8"/>
         <v>114</v>
@@ -9367,7 +9367,7 @@
       <c r="N130" s="54"/>
       <c r="O130" s="55"/>
     </row>
-    <row r="131" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="47">
         <f t="shared" si="8"/>
         <v>115</v>
@@ -9408,7 +9408,7 @@
       <c r="N131" s="54"/>
       <c r="O131" s="55"/>
     </row>
-    <row r="132" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="47">
         <f t="shared" si="8"/>
         <v>116</v>
@@ -9450,7 +9450,7 @@
       <c r="O132" s="55"/>
       <c r="P132" s="56"/>
     </row>
-    <row r="133" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="47">
         <f t="shared" si="8"/>
         <v>117</v>
@@ -9492,7 +9492,7 @@
       <c r="O133" s="55"/>
       <c r="P133" s="56"/>
     </row>
-    <row r="134" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="47">
         <f t="shared" si="8"/>
         <v>118</v>
@@ -9533,7 +9533,7 @@
       <c r="N134" s="54"/>
       <c r="O134" s="55"/>
     </row>
-    <row r="135" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="47">
         <f t="shared" si="8"/>
         <v>119</v>
@@ -9574,7 +9574,7 @@
       <c r="N135" s="54"/>
       <c r="O135" s="55"/>
     </row>
-    <row r="136" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="47">
         <f t="shared" si="8"/>
         <v>120</v>
@@ -9616,7 +9616,7 @@
       <c r="O136" s="55"/>
       <c r="P136" s="56"/>
     </row>
-    <row r="137" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="47">
         <f t="shared" si="8"/>
         <v>121</v>
@@ -9658,7 +9658,7 @@
       <c r="O137" s="55"/>
       <c r="P137" s="56"/>
     </row>
-    <row r="138" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="47">
         <f t="shared" si="8"/>
         <v>122</v>
@@ -9700,7 +9700,7 @@
       <c r="O138" s="55"/>
       <c r="P138" s="56"/>
     </row>
-    <row r="139" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="47">
         <f t="shared" si="8"/>
         <v>123</v>
@@ -9742,7 +9742,7 @@
       <c r="O139" s="55"/>
       <c r="P139" s="56"/>
     </row>
-    <row r="140" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="47">
         <f t="shared" si="8"/>
         <v>124</v>
@@ -9784,7 +9784,7 @@
       <c r="O140" s="55"/>
       <c r="P140" s="56"/>
     </row>
-    <row r="141" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="47">
         <f t="shared" si="8"/>
         <v>125</v>
@@ -9826,7 +9826,7 @@
       <c r="O141" s="55"/>
       <c r="P141" s="56"/>
     </row>
-    <row r="142" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="47">
         <f t="shared" si="8"/>
         <v>126</v>
@@ -9868,7 +9868,7 @@
       <c r="O142" s="55"/>
       <c r="P142" s="56"/>
     </row>
-    <row r="143" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="47">
         <f t="shared" si="8"/>
         <v>127</v>
@@ -9910,7 +9910,7 @@
       <c r="O143" s="55"/>
       <c r="P143" s="56"/>
     </row>
-    <row r="144" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="47">
         <f t="shared" si="8"/>
         <v>128</v>
@@ -9952,7 +9952,7 @@
       <c r="O144" s="55"/>
       <c r="P144" s="56"/>
     </row>
-    <row r="145" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="47">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -9994,7 +9994,7 @@
       <c r="O145" s="55"/>
       <c r="P145" s="56"/>
     </row>
-    <row r="146" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="47">
         <f t="shared" si="8"/>
         <v>130</v>
@@ -10036,7 +10036,7 @@
       <c r="O146" s="55"/>
       <c r="P146" s="56"/>
     </row>
-    <row r="147" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="47">
         <f t="shared" si="8"/>
         <v>131</v>
@@ -10078,7 +10078,7 @@
       <c r="O147" s="55"/>
       <c r="P147" s="56"/>
     </row>
-    <row r="148" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="47">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -10120,7 +10120,7 @@
       <c r="O148" s="55"/>
       <c r="P148" s="56"/>
     </row>
-    <row r="149" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="47">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -10162,7 +10162,7 @@
       <c r="O149" s="55"/>
       <c r="P149" s="56"/>
     </row>
-    <row r="150" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="47">
         <f t="shared" si="8"/>
         <v>134</v>
@@ -10463,7 +10463,7 @@
       <c r="O157" s="55"/>
       <c r="P157" s="56"/>
     </row>
-    <row r="158" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="47"/>
       <c r="C158" s="62"/>
       <c r="D158" s="58" t="str">
@@ -10500,7 +10500,7 @@
       <c r="O158" s="55"/>
       <c r="P158" s="56"/>
     </row>
-    <row r="159" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="47"/>
       <c r="C159" s="62"/>
       <c r="D159" s="58" t="str">
@@ -10537,7 +10537,7 @@
       <c r="O159" s="55"/>
       <c r="P159" s="56"/>
     </row>
-    <row r="160" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="47"/>
       <c r="C160" s="62"/>
       <c r="D160" s="58" t="str">
@@ -10574,7 +10574,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="56"/>
     </row>
-    <row r="161" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="47"/>
       <c r="C161" s="62"/>
       <c r="D161" s="58" t="str">
@@ -10611,7 +10611,7 @@
       <c r="O161" s="55"/>
       <c r="P161" s="56"/>
     </row>
-    <row r="162" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="47"/>
       <c r="C162" s="62"/>
       <c r="D162" s="58" t="str">
@@ -10648,7 +10648,7 @@
       <c r="O162" s="55"/>
       <c r="P162" s="56"/>
     </row>
-    <row r="163" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="47"/>
       <c r="C163" s="62"/>
       <c r="D163" s="58" t="str">
@@ -10685,7 +10685,7 @@
       <c r="O163" s="55"/>
       <c r="P163" s="56"/>
     </row>
-    <row r="164" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="47"/>
       <c r="C164" s="62"/>
       <c r="D164" s="58" t="str">
@@ -10722,7 +10722,7 @@
       <c r="O164" s="55"/>
       <c r="P164" s="56"/>
     </row>
-    <row r="165" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="47"/>
       <c r="C165" s="62"/>
       <c r="D165" s="58" t="str">
@@ -10759,7 +10759,7 @@
       <c r="O165" s="55"/>
       <c r="P165" s="56"/>
     </row>
-    <row r="166" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="47"/>
       <c r="C166" s="62"/>
       <c r="D166" s="58" t="str">
@@ -10796,7 +10796,7 @@
       <c r="O166" s="55"/>
       <c r="P166" s="56"/>
     </row>
-    <row r="167" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="47"/>
       <c r="C167" s="62"/>
       <c r="D167" s="58" t="str">
@@ -10833,7 +10833,7 @@
       <c r="O167" s="55"/>
       <c r="P167" s="56"/>
     </row>
-    <row r="168" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="47"/>
       <c r="C168" s="62"/>
       <c r="D168" s="58" t="str">
@@ -10870,7 +10870,7 @@
       <c r="O168" s="55"/>
       <c r="P168" s="56"/>
     </row>
-    <row r="169" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="47"/>
       <c r="C169" s="62"/>
       <c r="D169" s="58" t="str">
@@ -10907,7 +10907,7 @@
       <c r="O169" s="55"/>
       <c r="P169" s="56"/>
     </row>
-    <row r="170" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="47"/>
       <c r="C170" s="62"/>
       <c r="D170" s="58" t="str">
@@ -10944,7 +10944,7 @@
       <c r="O170" s="55"/>
       <c r="P170" s="56"/>
     </row>
-    <row r="171" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="47"/>
       <c r="C171" s="62"/>
       <c r="D171" s="58" t="str">
@@ -10981,7 +10981,7 @@
       <c r="O171" s="55"/>
       <c r="P171" s="56"/>
     </row>
-    <row r="172" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="47"/>
       <c r="C172" s="62"/>
       <c r="D172" s="58" t="str">
@@ -11018,7 +11018,7 @@
       <c r="O172" s="55"/>
       <c r="P172" s="56"/>
     </row>
-    <row r="173" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="47"/>
       <c r="C173" s="62"/>
       <c r="D173" s="58" t="str">
@@ -11055,7 +11055,7 @@
       <c r="O173" s="55"/>
       <c r="P173" s="56"/>
     </row>
-    <row r="174" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="47"/>
       <c r="C174" s="62"/>
       <c r="D174" s="58" t="str">
@@ -11092,7 +11092,7 @@
       <c r="O174" s="55"/>
       <c r="P174" s="56"/>
     </row>
-    <row r="175" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="47"/>
       <c r="C175" s="62"/>
       <c r="D175" s="58" t="str">
@@ -11129,7 +11129,7 @@
       <c r="O175" s="55"/>
       <c r="P175" s="56"/>
     </row>
-    <row r="176" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="47"/>
       <c r="C176" s="62"/>
       <c r="D176" s="58" t="str">
@@ -11166,7 +11166,7 @@
       <c r="O176" s="55"/>
       <c r="P176" s="56"/>
     </row>
-    <row r="177" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="47"/>
       <c r="C177" s="62"/>
       <c r="D177" s="58" t="str">
@@ -11203,7 +11203,7 @@
       <c r="O177" s="55"/>
       <c r="P177" s="56"/>
     </row>
-    <row r="178" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="47"/>
       <c r="C178" s="62"/>
       <c r="D178" s="58" t="str">
@@ -11240,7 +11240,7 @@
       <c r="O178" s="55"/>
       <c r="P178" s="56"/>
     </row>
-    <row r="179" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="47"/>
       <c r="C179" s="62"/>
       <c r="D179" s="58" t="str">
@@ -11277,7 +11277,7 @@
       <c r="O179" s="55"/>
       <c r="P179" s="56"/>
     </row>
-    <row r="180" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="47"/>
       <c r="C180" s="62"/>
       <c r="D180" s="58" t="str">
@@ -11314,7 +11314,7 @@
       <c r="O180" s="55"/>
       <c r="P180" s="56"/>
     </row>
-    <row r="181" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="47"/>
       <c r="C181" s="62"/>
       <c r="D181" s="58" t="str">
@@ -11351,7 +11351,7 @@
       <c r="O181" s="55"/>
       <c r="P181" s="56"/>
     </row>
-    <row r="182" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="47"/>
       <c r="C182" s="62"/>
       <c r="D182" s="58" t="str">
@@ -11388,7 +11388,7 @@
       <c r="O182" s="55"/>
       <c r="P182" s="56"/>
     </row>
-    <row r="183" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="47"/>
       <c r="C183" s="62"/>
       <c r="D183" s="58" t="str">
@@ -11425,7 +11425,7 @@
       <c r="O183" s="55"/>
       <c r="P183" s="56"/>
     </row>
-    <row r="184" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="47"/>
       <c r="C184" s="62"/>
       <c r="D184" s="58" t="str">
@@ -11462,7 +11462,7 @@
       <c r="O184" s="55"/>
       <c r="P184" s="56"/>
     </row>
-    <row r="185" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="47"/>
       <c r="C185" s="62"/>
       <c r="D185" s="58" t="str">
@@ -11499,7 +11499,7 @@
       <c r="O185" s="55"/>
       <c r="P185" s="56"/>
     </row>
-    <row r="186" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="47"/>
       <c r="C186" s="62"/>
       <c r="D186" s="58" t="str">
@@ -11536,7 +11536,7 @@
       <c r="O186" s="55"/>
       <c r="P186" s="56"/>
     </row>
-    <row r="187" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="47"/>
       <c r="C187" s="62"/>
       <c r="D187" s="58" t="str">
@@ -11573,7 +11573,7 @@
       <c r="O187" s="55"/>
       <c r="P187" s="56"/>
     </row>
-    <row r="188" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="47"/>
       <c r="C188" s="62"/>
       <c r="D188" s="58" t="str">
@@ -11610,7 +11610,7 @@
       <c r="O188" s="55"/>
       <c r="P188" s="56"/>
     </row>
-    <row r="189" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="47"/>
       <c r="C189" s="62"/>
       <c r="D189" s="58" t="str">
@@ -11647,7 +11647,7 @@
       <c r="O189" s="55"/>
       <c r="P189" s="56"/>
     </row>
-    <row r="190" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="47"/>
       <c r="C190" s="62"/>
       <c r="D190" s="58" t="str">
@@ -11684,7 +11684,7 @@
       <c r="O190" s="55"/>
       <c r="P190" s="56"/>
     </row>
-    <row r="191" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="47"/>
       <c r="C191" s="62"/>
       <c r="D191" s="58" t="str">
@@ -11721,7 +11721,7 @@
       <c r="O191" s="55"/>
       <c r="P191" s="56"/>
     </row>
-    <row r="192" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="47"/>
       <c r="C192" s="62"/>
       <c r="D192" s="58" t="str">
@@ -11758,7 +11758,7 @@
       <c r="O192" s="55"/>
       <c r="P192" s="56"/>
     </row>
-    <row r="193" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="47"/>
       <c r="C193" s="62"/>
       <c r="D193" s="58" t="str">
@@ -11795,7 +11795,7 @@
       <c r="O193" s="55"/>
       <c r="P193" s="56"/>
     </row>
-    <row r="194" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="47"/>
       <c r="C194" s="62"/>
       <c r="D194" s="58" t="str">
@@ -11832,7 +11832,7 @@
       <c r="O194" s="55"/>
       <c r="P194" s="56"/>
     </row>
-    <row r="195" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="47"/>
       <c r="C195" s="62"/>
       <c r="D195" s="58" t="str">
@@ -11869,7 +11869,7 @@
       <c r="O195" s="55"/>
       <c r="P195" s="56"/>
     </row>
-    <row r="196" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="47"/>
       <c r="C196" s="62"/>
       <c r="D196" s="58" t="str">
@@ -11906,7 +11906,7 @@
       <c r="O196" s="55"/>
       <c r="P196" s="56"/>
     </row>
-    <row r="197" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="47"/>
       <c r="C197" s="62"/>
       <c r="D197" s="58" t="str">
@@ -11943,7 +11943,7 @@
       <c r="O197" s="55"/>
       <c r="P197" s="56"/>
     </row>
-    <row r="198" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="47"/>
       <c r="C198" s="62"/>
       <c r="D198" s="58" t="str">
@@ -11980,7 +11980,7 @@
       <c r="O198" s="55"/>
       <c r="P198" s="56"/>
     </row>
-    <row r="199" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="47"/>
       <c r="C199" s="62"/>
       <c r="D199" s="58" t="str">
@@ -12017,7 +12017,7 @@
       <c r="O199" s="55"/>
       <c r="P199" s="56"/>
     </row>
-    <row r="200" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="47"/>
       <c r="C200" s="62"/>
       <c r="D200" s="58" t="str">
@@ -12054,7 +12054,7 @@
       <c r="O200" s="55"/>
       <c r="P200" s="56"/>
     </row>
-    <row r="201" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="47"/>
       <c r="C201" s="62"/>
       <c r="D201" s="58" t="str">
@@ -12091,7 +12091,7 @@
       <c r="O201" s="55"/>
       <c r="P201" s="56"/>
     </row>
-    <row r="202" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="47"/>
       <c r="C202" s="62"/>
       <c r="D202" s="58" t="str">
@@ -12128,7 +12128,7 @@
       <c r="O202" s="55"/>
       <c r="P202" s="56"/>
     </row>
-    <row r="203" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="47"/>
       <c r="C203" s="62"/>
       <c r="D203" s="58" t="str">
@@ -12165,7 +12165,7 @@
       <c r="O203" s="55"/>
       <c r="P203" s="56"/>
     </row>
-    <row r="204" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="47"/>
       <c r="C204" s="62"/>
       <c r="D204" s="58" t="str">
@@ -12202,7 +12202,7 @@
       <c r="O204" s="55"/>
       <c r="P204" s="56"/>
     </row>
-    <row r="205" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="47" t="str">
         <f t="shared" ref="B205" si="11">IF(G205&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -12234,12 +12234,12 @@
       <c r="I206" s="67"/>
       <c r="J206" s="69">
         <f>SUBTOTAL(9,J17:J205)</f>
-        <v>2877291063</v>
+        <v>48329518</v>
       </c>
       <c r="K206" s="69"/>
       <c r="L206" s="69">
         <f>SUBTOTAL(9,L17:L205)</f>
-        <v>287729077</v>
+        <v>4832949</v>
       </c>
       <c r="M206" s="67"/>
       <c r="N206" s="55"/>
@@ -12449,7 +12449,7 @@
       <c r="G219" s="37"/>
       <c r="H219" s="85">
         <f>J206</f>
-        <v>2877291063</v>
+        <v>48329518</v>
       </c>
       <c r="I219" s="37"/>
       <c r="K219" s="39"/>
@@ -12465,7 +12465,7 @@
       <c r="G220" s="37"/>
       <c r="H220" s="85">
         <f>L206</f>
-        <v>287729077</v>
+        <v>4832949</v>
       </c>
       <c r="I220" s="37"/>
       <c r="K220" s="39"/>
@@ -12541,16 +12541,17 @@
       <c r="M225" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A16:Q205"/>
+  <autoFilter ref="A16:Q205">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A240:Q249">
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -12560,6 +12561,11 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -12641,66 +12647,66 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="164" t="str">
+      <c r="B7" s="160" t="str">
         <f>"Kỳ tính thuế: Quý   "&amp;N14&amp;"  Năm  "&amp;YEAR(F26)</f>
         <v>Kỳ tính thuế: Quý   2  Năm  2015</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -12724,62 +12730,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161" t="s">
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="161" t="s">
+      <c r="H12" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="161" t="s">
+      <c r="I12" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="161" t="s">
+      <c r="J12" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="161" t="s">
+      <c r="K12" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="161" t="s">
+      <c r="L12" s="164" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="161"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="111" t="s">
         <v>43</v>
       </c>
@@ -12792,12 +12798,12 @@
       <c r="F14" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
       <c r="N14" s="115">
         <v>2</v>
       </c>
@@ -12838,16 +12844,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
@@ -12881,16 +12887,16 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="24"/>
@@ -12924,16 +12930,16 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="24"/>
@@ -29832,16 +29838,16 @@
     </row>
     <row r="459" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="460" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="158" t="s">
+      <c r="B460" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C460" s="159"/>
-      <c r="D460" s="159"/>
-      <c r="E460" s="159"/>
-      <c r="F460" s="159"/>
-      <c r="G460" s="159"/>
-      <c r="H460" s="159"/>
-      <c r="I460" s="159"/>
+      <c r="C460" s="162"/>
+      <c r="D460" s="162"/>
+      <c r="E460" s="162"/>
+      <c r="F460" s="162"/>
+      <c r="G460" s="162"/>
+      <c r="H460" s="162"/>
+      <c r="I460" s="162"/>
       <c r="J460" s="19"/>
       <c r="K460" s="19"/>
       <c r="L460" s="24"/>
@@ -29984,11 +29990,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B460:I460"/>
@@ -30001,6 +30002,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -30043,23 +30049,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="170"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
       <c r="R2" s="117" t="s">
         <v>573</v>
       </c>
@@ -30068,23 +30074,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="173"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
       <c r="R3" s="117" t="s">
         <v>548</v>
       </c>
@@ -30094,22 +30100,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="92"/>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="174"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="170"/>
       <c r="R4" s="117" t="s">
         <v>567</v>
       </c>
@@ -30119,22 +30125,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="92"/>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="174"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="170"/>
       <c r="R5" s="118" t="s">
         <v>282</v>
       </c>
@@ -30145,21 +30151,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="92"/>
       <c r="C6" s="93"/>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="167"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="166"/>
       <c r="R6" s="117" t="s">
         <v>564</v>
       </c>
@@ -30170,21 +30176,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="167"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="166"/>
       <c r="R7" s="117" t="s">
         <v>94</v>
       </c>
@@ -30195,21 +30201,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="166"/>
       <c r="R8" s="117" t="s">
         <v>91</v>
       </c>
@@ -30220,21 +30226,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="92"/>
       <c r="C9" s="93"/>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
       <c r="R9" s="117" t="s">
         <v>581</v>
       </c>
@@ -30245,21 +30251,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="92"/>
       <c r="C10" s="93"/>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
       <c r="R10" s="117" t="s">
         <v>550</v>
       </c>
@@ -30269,22 +30275,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="92"/>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="174"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="170"/>
       <c r="R11" s="119" t="s">
         <v>552</v>
       </c>
@@ -30294,22 +30300,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="92"/>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="174"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="170"/>
       <c r="R12" s="117" t="s">
         <v>284</v>
       </c>
@@ -30341,23 +30347,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="173"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="178"/>
       <c r="R14" s="117" t="s">
         <v>547</v>
       </c>
@@ -30367,22 +30373,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="92"/>
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="174"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="170"/>
       <c r="R15" s="117" t="s">
         <v>549</v>
       </c>
@@ -30393,21 +30399,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="92"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="167"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="166"/>
       <c r="R16" s="117" t="s">
         <v>281</v>
       </c>
@@ -30443,21 +30449,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="92"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="167"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="166"/>
       <c r="R18" s="117" t="s">
         <v>546</v>
       </c>
@@ -30468,21 +30474,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="92"/>
       <c r="C19" s="93"/>
-      <c r="D19" s="166" t="s">
+      <c r="D19" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="167"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="166"/>
       <c r="R19" s="117" t="s">
         <v>576</v>
       </c>
@@ -30493,21 +30499,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
       <c r="C20" s="93"/>
-      <c r="D20" s="166" t="s">
+      <c r="D20" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="167"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="166"/>
       <c r="R20" s="119" t="s">
         <v>565</v>
       </c>
@@ -30518,21 +30524,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="92"/>
       <c r="C21" s="93"/>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="167"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="166"/>
       <c r="R21" s="117" t="s">
         <v>597</v>
       </c>
@@ -30543,21 +30549,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="92"/>
       <c r="C22" s="93"/>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="167"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="166"/>
       <c r="R22" s="117" t="s">
         <v>577</v>
       </c>
@@ -30568,21 +30574,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="92"/>
       <c r="C23" s="93"/>
-      <c r="D23" s="166" t="s">
+      <c r="D23" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="167"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="166"/>
       <c r="R23" s="117" t="s">
         <v>195</v>
       </c>
@@ -30593,21 +30599,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="167"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="166"/>
       <c r="R24" s="119" t="s">
         <v>196</v>
       </c>
@@ -30618,21 +30624,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="92"/>
       <c r="C25" s="93"/>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="167"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="166"/>
       <c r="R25" s="117" t="s">
         <v>571</v>
       </c>
@@ -30665,22 +30671,22 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="92"/>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="174"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="170"/>
       <c r="R27" s="119" t="s">
         <v>582</v>
       </c>
@@ -30691,21 +30697,21 @@
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="92"/>
       <c r="C28" s="93"/>
-      <c r="D28" s="166" t="s">
+      <c r="D28" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="167"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="166"/>
       <c r="R28" s="117" t="s">
         <v>559</v>
       </c>
@@ -30716,21 +30722,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="92"/>
       <c r="C29" s="93"/>
-      <c r="D29" s="166" t="s">
+      <c r="D29" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="167"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="166"/>
       <c r="R29" s="119" t="s">
         <v>586</v>
       </c>
@@ -30741,21 +30747,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="92"/>
       <c r="C30" s="93"/>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="167"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="166"/>
       <c r="R30" s="117" t="s">
         <v>557</v>
       </c>
@@ -30766,21 +30772,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="92"/>
       <c r="C31" s="93"/>
-      <c r="D31" s="166" t="s">
+      <c r="D31" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="167"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="166"/>
       <c r="R31" s="119" t="s">
         <v>287</v>
       </c>
@@ -30791,21 +30797,21 @@
     <row r="32" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="92"/>
       <c r="C32" s="93"/>
-      <c r="D32" s="177" t="s">
+      <c r="D32" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="178"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="172"/>
       <c r="R32" s="117" t="s">
         <v>595</v>
       </c>
@@ -30816,21 +30822,21 @@
     <row r="33" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="98"/>
       <c r="C33" s="99"/>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="176"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="168"/>
       <c r="R33" s="119" t="s">
         <v>585</v>
       </c>
@@ -31585,21 +31591,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="C27:P27"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -31614,6 +31605,21 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="C27:P27"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31649,23 +31655,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="192"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
       <c r="R2" s="51" t="s">
         <v>293</v>
       </c>
@@ -31675,23 +31681,23 @@
       <c r="T2" s="57"/>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
       <c r="R3" s="59" t="s">
         <v>292</v>
       </c>
@@ -31702,22 +31708,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="102"/>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="184"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="186"/>
       <c r="R4" s="59" t="s">
         <v>88</v>
       </c>
@@ -31728,22 +31734,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="102"/>
-      <c r="C5" s="183" t="s">
+      <c r="C5" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="184"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="186"/>
       <c r="R5" s="59" t="s">
         <v>605</v>
       </c>
@@ -31755,21 +31761,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="102"/>
       <c r="C6" s="103"/>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="185"/>
-      <c r="P6" s="186"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="188"/>
       <c r="R6" s="59" t="s">
         <v>294</v>
       </c>
@@ -31781,21 +31787,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="102"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="183" t="s">
+      <c r="D7" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="186"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="188"/>
       <c r="R7" s="59" t="s">
         <v>606</v>
       </c>
@@ -31807,21 +31813,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="102"/>
       <c r="C8" s="103"/>
-      <c r="D8" s="183" t="s">
+      <c r="D8" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="186"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="188"/>
       <c r="R8" s="59" t="s">
         <v>95</v>
       </c>
@@ -31833,21 +31839,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="102"/>
       <c r="C9" s="103"/>
-      <c r="D9" s="183" t="s">
+      <c r="D9" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="186"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="188"/>
       <c r="R9" s="59" t="s">
         <v>645</v>
       </c>
@@ -31859,21 +31865,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="102"/>
       <c r="C10" s="103"/>
-      <c r="D10" s="183" t="s">
+      <c r="D10" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="186"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="188"/>
       <c r="R10" s="59" t="s">
         <v>720</v>
       </c>
@@ -31884,22 +31890,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="102"/>
-      <c r="C11" s="183" t="s">
+      <c r="C11" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="184"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="186"/>
       <c r="R11" s="59" t="s">
         <v>646</v>
       </c>
@@ -31910,22 +31916,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="102"/>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="184"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="186"/>
       <c r="R12" s="59" t="s">
         <v>721</v>
       </c>
@@ -31959,23 +31965,23 @@
       <c r="T13" s="57"/>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="189"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
       <c r="R14" s="59" t="s">
         <v>723</v>
       </c>
@@ -31986,22 +31992,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="102"/>
-      <c r="C15" s="183" t="s">
+      <c r="C15" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="184"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="186"/>
       <c r="R15" s="59" t="s">
         <v>300</v>
       </c>
@@ -32013,21 +32019,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="102"/>
       <c r="C16" s="105"/>
-      <c r="D16" s="185" t="s">
+      <c r="D16" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="186"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="188"/>
       <c r="R16" s="59" t="s">
         <v>647</v>
       </c>
@@ -32065,21 +32071,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="102"/>
       <c r="C18" s="103"/>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="186"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
       <c r="R18" s="59" t="s">
         <v>724</v>
       </c>
@@ -32089,21 +32095,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="102"/>
       <c r="C19" s="103"/>
-      <c r="D19" s="185" t="s">
+      <c r="D19" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="186"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="188"/>
       <c r="R19" s="59" t="s">
         <v>725</v>
       </c>
@@ -32113,21 +32119,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="102"/>
       <c r="C20" s="103"/>
-      <c r="D20" s="185" t="s">
+      <c r="D20" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="185"/>
-      <c r="K20" s="185"/>
-      <c r="L20" s="185"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
-      <c r="P20" s="186"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="188"/>
       <c r="R20" s="59" t="s">
         <v>726</v>
       </c>
@@ -32137,21 +32143,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="102"/>
       <c r="C21" s="103"/>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="187" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="185"/>
-      <c r="N21" s="185"/>
-      <c r="O21" s="185"/>
-      <c r="P21" s="186"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
       <c r="R21" s="59" t="s">
         <v>727</v>
       </c>
@@ -32163,21 +32169,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
-      <c r="D22" s="185" t="s">
+      <c r="D22" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="186"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="188"/>
       <c r="R22" s="59" t="s">
         <v>728</v>
       </c>
@@ -32189,21 +32195,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="102"/>
       <c r="C23" s="103"/>
-      <c r="D23" s="185" t="s">
+      <c r="D23" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="186"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
       <c r="R23" s="59" t="s">
         <v>607</v>
       </c>
@@ -32215,21 +32221,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="102"/>
       <c r="C24" s="103"/>
-      <c r="D24" s="185" t="s">
+      <c r="D24" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="185"/>
-      <c r="L24" s="185"/>
-      <c r="M24" s="185"/>
-      <c r="N24" s="185"/>
-      <c r="O24" s="185"/>
-      <c r="P24" s="186"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="188"/>
       <c r="R24" s="59" t="s">
         <v>729</v>
       </c>
@@ -32241,21 +32247,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="102"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="185" t="s">
+      <c r="D25" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="185"/>
-      <c r="K25" s="185"/>
-      <c r="L25" s="185"/>
-      <c r="M25" s="185"/>
-      <c r="N25" s="185"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="186"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
       <c r="R25" s="59" t="s">
         <v>730</v>
       </c>
@@ -32267,21 +32273,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="102"/>
       <c r="C26" s="103"/>
-      <c r="D26" s="185" t="s">
+      <c r="D26" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
-      <c r="L26" s="185"/>
-      <c r="M26" s="185"/>
-      <c r="N26" s="185"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="186"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="188"/>
       <c r="R26" s="11"/>
       <c r="S26" s="91"/>
       <c r="T26" s="91"/>
@@ -32289,21 +32295,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="102"/>
       <c r="C27" s="103"/>
-      <c r="D27" s="185" t="s">
+      <c r="D27" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="185"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="185"/>
-      <c r="P27" s="186"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="188"/>
       <c r="R27" s="11"/>
       <c r="S27" s="91"/>
       <c r="T27" s="91"/>
@@ -32330,22 +32336,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="102"/>
-      <c r="C29" s="183" t="s">
+      <c r="C29" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="184"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="186"/>
       <c r="R29" s="59"/>
       <c r="S29" s="91"/>
       <c r="T29" s="91"/>
@@ -32353,21 +32359,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-      <c r="L30" s="185"/>
-      <c r="M30" s="185"/>
-      <c r="N30" s="185"/>
-      <c r="O30" s="185"/>
-      <c r="P30" s="186"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="188"/>
       <c r="R30" s="59"/>
       <c r="S30" s="91"/>
       <c r="T30" s="91"/>
@@ -32375,21 +32381,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="102"/>
       <c r="C31" s="103"/>
-      <c r="D31" s="185" t="s">
+      <c r="D31" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="185"/>
-      <c r="K31" s="185"/>
-      <c r="L31" s="185"/>
-      <c r="M31" s="185"/>
-      <c r="N31" s="185"/>
-      <c r="O31" s="185"/>
-      <c r="P31" s="186"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="188"/>
       <c r="R31" s="59"/>
       <c r="S31" s="91"/>
       <c r="T31" s="91"/>
@@ -32397,21 +32403,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
-      <c r="D32" s="185" t="s">
+      <c r="D32" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
-      <c r="M32" s="185"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="185"/>
-      <c r="P32" s="186"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="188"/>
       <c r="R32" s="59"/>
       <c r="S32" s="91"/>
       <c r="T32" s="91"/>
@@ -32419,21 +32425,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
-      <c r="D33" s="185" t="s">
+      <c r="D33" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="185"/>
-      <c r="M33" s="185"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="185"/>
-      <c r="P33" s="186"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="188"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -32441,21 +32447,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="179" t="s">
+      <c r="D34" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="179"/>
-      <c r="O34" s="179"/>
-      <c r="P34" s="180"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="189"/>
+      <c r="M34" s="189"/>
+      <c r="N34" s="189"/>
+      <c r="O34" s="189"/>
+      <c r="P34" s="190"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -32463,21 +32469,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="102"/>
       <c r="C35" s="103"/>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="179"/>
-      <c r="P35" s="180"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="189"/>
+      <c r="O35" s="189"/>
+      <c r="P35" s="190"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -32485,21 +32491,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="108"/>
       <c r="C36" s="109"/>
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="181"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="181"/>
-      <c r="M36" s="181"/>
-      <c r="N36" s="181"/>
-      <c r="O36" s="181"/>
-      <c r="P36" s="182"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="191"/>
+      <c r="P36" s="192"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -32576,6 +32582,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -32588,26 +32614,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
